--- a/vocexcel/blank_043.xlsx
+++ b/vocexcel/blank_043.xlsx
@@ -1451,7 +1451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1502,6 +1502,18 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1542,24 +1554,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1571,25 +1574,6 @@
     <dxf>
       <font>
         <color rgb="FFD9EAD3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1664,7 +1648,7 @@
         <xdr:cNvPr id="2" name="image1.jpg" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1877,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1005"/>
+  <dimension ref="A1:K1005"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -1964,11 +1948,11 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1992,11 +1976,11 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -2007,11 +1991,11 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -2022,11 +2006,11 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -2037,11 +2021,11 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -2128,14 +2112,14 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2143,12 +2127,12 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2156,12 +2140,12 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -2169,12 +2153,12 @@
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -2195,14 +2179,14 @@
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2223,14 +2207,14 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -2251,14 +2235,14 @@
     </row>
     <row r="26" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -3309,7 +3293,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1065"/>
+  <dimension ref="A1:J1065"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:I4"/>
@@ -3343,1818 +3327,1818 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
       <c r="J95" s="1"/>
     </row>
     <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
       <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
       <c r="J99" s="1"/>
     </row>
     <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
       <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
       <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
       <c r="J103" s="1"/>
     </row>
     <row r="104" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
       <c r="J104" s="1"/>
     </row>
     <row r="105" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
       <c r="J105" s="1"/>
     </row>
     <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
       <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
       <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
       <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
       <c r="J112" s="1"/>
     </row>
     <row r="113" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
       <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
       <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
       <c r="J116" s="1"/>
     </row>
     <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
       <c r="J117" s="1"/>
     </row>
     <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
       <c r="J118" s="1"/>
     </row>
     <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
       <c r="J119" s="1"/>
     </row>
     <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
       <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
       <c r="J123" s="1"/>
     </row>
     <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
       <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
       <c r="J125" s="1"/>
     </row>
     <row r="126" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
       <c r="J126" s="1"/>
     </row>
     <row r="127" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
       <c r="J127" s="1"/>
     </row>
     <row r="128" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
       <c r="J128" s="1"/>
     </row>
     <row r="129" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
       <c r="J129" s="1"/>
     </row>
     <row r="130" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
       <c r="J130" s="1"/>
     </row>
     <row r="131" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
       <c r="J131" s="1"/>
     </row>
     <row r="132" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
       <c r="J132" s="1"/>
     </row>
     <row r="133" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
       <c r="J133" s="1"/>
     </row>
     <row r="134" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
       <c r="J134" s="1"/>
     </row>
     <row r="135" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
       <c r="J135" s="1"/>
     </row>
     <row r="136" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
       <c r="J136" s="1"/>
     </row>
     <row r="137" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
       <c r="J137" s="1"/>
     </row>
     <row r="138" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
       <c r="J138" s="1"/>
     </row>
     <row r="139" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
       <c r="J139" s="1"/>
     </row>
     <row r="140" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
       <c r="J140" s="1"/>
     </row>
     <row r="141" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
       <c r="J141" s="1"/>
     </row>
     <row r="142" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="31"/>
       <c r="J142" s="1"/>
     </row>
     <row r="143" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
       <c r="J143" s="1"/>
     </row>
     <row r="144" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
+      <c r="I144" s="31"/>
       <c r="J144" s="1"/>
     </row>
     <row r="145" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
+      <c r="I145" s="31"/>
       <c r="J145" s="1"/>
     </row>
     <row r="146" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
       <c r="J146" s="1"/>
     </row>
     <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
       <c r="J147" s="1"/>
     </row>
     <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
       <c r="J148" s="1"/>
     </row>
     <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
       <c r="J149" s="1"/>
     </row>
     <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
       <c r="J150" s="1"/>
     </row>
     <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
       <c r="J151" s="1"/>
     </row>
     <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
       <c r="J152" s="1"/>
     </row>
     <row r="153" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
       <c r="J153" s="1"/>
     </row>
     <row r="154" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -5171,58 +5155,58 @@
     </row>
     <row r="155" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="31"/>
       <c r="J155" s="1"/>
     </row>
     <row r="156" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
-      <c r="B156" s="26" t="s">
+      <c r="B156" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="27"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="31"/>
       <c r="J156" s="1"/>
     </row>
     <row r="157" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="27"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
+      <c r="I157" s="31"/>
       <c r="J157" s="1"/>
     </row>
     <row r="158" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
-      <c r="B158" s="26" t="s">
+      <c r="B158" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
+      <c r="I158" s="31"/>
       <c r="J158" s="1"/>
     </row>
     <row r="159" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -6182,7 +6166,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -6197,12 +6181,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9317,7 +9301,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC500"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -9337,17 +9321,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -14870,7 +14854,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA500"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -14878,19 +14862,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" style="23" customWidth="1"/>
     <col min="2" max="6" width="25.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -14913,7 +14897,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A3,Concepts!A3:A500,1), "")</f>
         <v/>
       </c>
@@ -14924,7 +14908,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A4,Concepts!A4:A500,1), "")</f>
         <v/>
       </c>
@@ -14935,7 +14919,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A5,Concepts!A5:A500,1), "")</f>
         <v/>
       </c>
@@ -14946,7 +14930,7 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A6,Concepts!A6:A500,1), "")</f>
         <v/>
       </c>
@@ -14957,7 +14941,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A7,Concepts!A7:A500,1), "")</f>
         <v/>
       </c>
@@ -14968,7 +14952,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A8,Concepts!A8:A500,1), "")</f>
         <v/>
       </c>
@@ -14979,7 +14963,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A9,Concepts!A9:A500,1), "")</f>
         <v/>
       </c>
@@ -14990,7 +14974,7 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A10,Concepts!A10:A500,1), "")</f>
         <v/>
       </c>
@@ -15001,7 +14985,7 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A11,Concepts!A11:A500,1), "")</f>
         <v/>
       </c>
@@ -15012,7 +14996,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A12,Concepts!A12:A500,1), "")</f>
         <v/>
       </c>
@@ -15023,7 +15007,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A13,Concepts!A13:A500,1), "")</f>
         <v/>
       </c>
@@ -15034,7 +15018,7 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="str">
+      <c r="A14" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A14,Concepts!A14:A500,1), "")</f>
         <v/>
       </c>
@@ -15045,7 +15029,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="str">
+      <c r="A15" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A15,Concepts!A15:A500,1), "")</f>
         <v/>
       </c>
@@ -15056,7 +15040,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="str">
+      <c r="A16" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A16,Concepts!A16:A500,1), "")</f>
         <v/>
       </c>
@@ -15067,7 +15051,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="str">
+      <c r="A17" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A17,Concepts!A17:A500,1), "")</f>
         <v/>
       </c>
@@ -15078,7 +15062,7 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="str">
+      <c r="A18" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A18,Concepts!A18:A500,1), "")</f>
         <v/>
       </c>
@@ -15089,7 +15073,7 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="str">
+      <c r="A19" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A19,Concepts!A19:A500,1), "")</f>
         <v/>
       </c>
@@ -15100,7 +15084,7 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="str">
+      <c r="A20" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A20,Concepts!A20:A500,1), "")</f>
         <v/>
       </c>
@@ -15111,7 +15095,7 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="str">
+      <c r="A21" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A21,Concepts!A21:A500,1), "")</f>
         <v/>
       </c>
@@ -15122,7 +15106,7 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="str">
+      <c r="A22" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A22,Concepts!A22:A500,1), "")</f>
         <v/>
       </c>
@@ -15133,7 +15117,7 @@
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="str">
+      <c r="A23" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A23,Concepts!A23:A500,1), "")</f>
         <v/>
       </c>
@@ -15144,7 +15128,7 @@
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="str">
+      <c r="A24" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A24,Concepts!A24:A500,1), "")</f>
         <v/>
       </c>
@@ -15155,7 +15139,7 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="str">
+      <c r="A25" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A25,Concepts!A25:A500,1), "")</f>
         <v/>
       </c>
@@ -15166,7 +15150,7 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="str">
+      <c r="A26" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A26,Concepts!A26:A500,1), "")</f>
         <v/>
       </c>
@@ -15177,7 +15161,7 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="str">
+      <c r="A27" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A27,Concepts!A27:A500,1), "")</f>
         <v/>
       </c>
@@ -15188,7 +15172,7 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="str">
+      <c r="A28" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A28,Concepts!A28:A500,1), "")</f>
         <v/>
       </c>
@@ -15199,7 +15183,7 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="str">
+      <c r="A29" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A29,Concepts!A29:A500,1), "")</f>
         <v/>
       </c>
@@ -15210,7 +15194,7 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="str">
+      <c r="A30" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A30,Concepts!A30:A500,1), "")</f>
         <v/>
       </c>
@@ -15221,7 +15205,7 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="str">
+      <c r="A31" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A31,Concepts!A31:A500,1), "")</f>
         <v/>
       </c>
@@ -15232,7 +15216,7 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="str">
+      <c r="A32" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A32,Concepts!A32:A500,1), "")</f>
         <v/>
       </c>
@@ -15243,7 +15227,7 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="str">
+      <c r="A33" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A33,Concepts!A33:A500,1), "")</f>
         <v/>
       </c>
@@ -15254,7 +15238,7 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="str">
+      <c r="A34" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A34,Concepts!A34:A500,1), "")</f>
         <v/>
       </c>
@@ -15265,7 +15249,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="str">
+      <c r="A35" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A35,Concepts!A35:A500,1), "")</f>
         <v/>
       </c>
@@ -15276,7 +15260,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="str">
+      <c r="A36" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A36,Concepts!A36:A500,1), "")</f>
         <v/>
       </c>
@@ -15287,7 +15271,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="str">
+      <c r="A37" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A37,Concepts!A37:A500,1), "")</f>
         <v/>
       </c>
@@ -15298,7 +15282,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="str">
+      <c r="A38" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A38,Concepts!A38:A500,1), "")</f>
         <v/>
       </c>
@@ -15309,7 +15293,7 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="str">
+      <c r="A39" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A39,Concepts!A39:A500,1), "")</f>
         <v/>
       </c>
@@ -15320,7 +15304,7 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="str">
+      <c r="A40" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A40,Concepts!A40:A500,1), "")</f>
         <v/>
       </c>
@@ -15331,7 +15315,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="str">
+      <c r="A41" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A41,Concepts!A41:A500,1), "")</f>
         <v/>
       </c>
@@ -15342,7 +15326,7 @@
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="str">
+      <c r="A42" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A42,Concepts!A42:A500,1), "")</f>
         <v/>
       </c>
@@ -15353,7 +15337,7 @@
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="str">
+      <c r="A43" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A43,Concepts!A43:A500,1), "")</f>
         <v/>
       </c>
@@ -15364,7 +15348,7 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="str">
+      <c r="A44" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A44,Concepts!A44:A500,1), "")</f>
         <v/>
       </c>
@@ -15375,7 +15359,7 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="str">
+      <c r="A45" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A45,Concepts!A45:A500,1), "")</f>
         <v/>
       </c>
@@ -15386,7 +15370,7 @@
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="str">
+      <c r="A46" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A46,Concepts!A46:A500,1), "")</f>
         <v/>
       </c>
@@ -15397,7 +15381,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="str">
+      <c r="A47" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A47,Concepts!A47:A500,1), "")</f>
         <v/>
       </c>
@@ -15408,7 +15392,7 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="str">
+      <c r="A48" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A48,Concepts!A48:A500,1), "")</f>
         <v/>
       </c>
@@ -15419,7 +15403,7 @@
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="str">
+      <c r="A49" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A49,Concepts!A49:A500,1), "")</f>
         <v/>
       </c>
@@ -15430,7 +15414,7 @@
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="str">
+      <c r="A50" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A50,Concepts!A50:A500,1), "")</f>
         <v/>
       </c>
@@ -15441,7 +15425,7 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="str">
+      <c r="A51" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A51,Concepts!A51:A500,1), "")</f>
         <v/>
       </c>
@@ -15452,7 +15436,7 @@
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="str">
+      <c r="A52" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A52,Concepts!A52:A500,1), "")</f>
         <v/>
       </c>
@@ -15463,7 +15447,7 @@
       <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="str">
+      <c r="A53" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A53,Concepts!A53:A500,1), "")</f>
         <v/>
       </c>
@@ -15474,7 +15458,7 @@
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="str">
+      <c r="A54" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A54,Concepts!A54:A500,1), "")</f>
         <v/>
       </c>
@@ -15485,7 +15469,7 @@
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="str">
+      <c r="A55" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A55,Concepts!A55:A500,1), "")</f>
         <v/>
       </c>
@@ -15496,7 +15480,7 @@
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="str">
+      <c r="A56" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A56,Concepts!A56:A500,1), "")</f>
         <v/>
       </c>
@@ -15507,7 +15491,7 @@
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="str">
+      <c r="A57" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A57,Concepts!A57:A500,1), "")</f>
         <v/>
       </c>
@@ -15518,7 +15502,7 @@
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="str">
+      <c r="A58" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A58,Concepts!A58:A500,1), "")</f>
         <v/>
       </c>
@@ -15529,7 +15513,7 @@
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="str">
+      <c r="A59" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A59,Concepts!A59:A500,1), "")</f>
         <v/>
       </c>
@@ -15540,7 +15524,7 @@
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="str">
+      <c r="A60" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A60,Concepts!A60:A500,1), "")</f>
         <v/>
       </c>
@@ -15551,7 +15535,7 @@
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="str">
+      <c r="A61" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A61,Concepts!A61:A500,1), "")</f>
         <v/>
       </c>
@@ -15562,7 +15546,7 @@
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="str">
+      <c r="A62" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A62,Concepts!A62:A500,1), "")</f>
         <v/>
       </c>
@@ -15573,7 +15557,7 @@
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="str">
+      <c r="A63" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A63,Concepts!A63:A500,1), "")</f>
         <v/>
       </c>
@@ -15584,7 +15568,7 @@
       <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="str">
+      <c r="A64" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A64,Concepts!A64:A500,1), "")</f>
         <v/>
       </c>
@@ -15595,7 +15579,7 @@
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="str">
+      <c r="A65" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A65,Concepts!A65:A500,1), "")</f>
         <v/>
       </c>
@@ -15606,7 +15590,7 @@
       <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="str">
+      <c r="A66" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A66,Concepts!A66:A500,1), "")</f>
         <v/>
       </c>
@@ -15617,7 +15601,7 @@
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="str">
+      <c r="A67" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A67,Concepts!A67:A500,1), "")</f>
         <v/>
       </c>
@@ -15628,7 +15612,7 @@
       <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="str">
+      <c r="A68" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A68,Concepts!A68:A500,1), "")</f>
         <v/>
       </c>
@@ -15639,7 +15623,7 @@
       <c r="F68" s="8"/>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="str">
+      <c r="A69" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A69,Concepts!A69:A500,1), "")</f>
         <v/>
       </c>
@@ -15650,7 +15634,7 @@
       <c r="F69" s="8"/>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="str">
+      <c r="A70" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A70,Concepts!A70:A500,1), "")</f>
         <v/>
       </c>
@@ -15661,7 +15645,7 @@
       <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="str">
+      <c r="A71" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A71,Concepts!A71:A500,1), "")</f>
         <v/>
       </c>
@@ -15672,7 +15656,7 @@
       <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="str">
+      <c r="A72" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A72,Concepts!A72:A500,1), "")</f>
         <v/>
       </c>
@@ -15683,7 +15667,7 @@
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="str">
+      <c r="A73" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A73,Concepts!A73:A500,1), "")</f>
         <v/>
       </c>
@@ -15694,7 +15678,7 @@
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="str">
+      <c r="A74" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A74,Concepts!A74:A500,1), "")</f>
         <v/>
       </c>
@@ -15705,7 +15689,7 @@
       <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="str">
+      <c r="A75" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A75,Concepts!A75:A500,1), "")</f>
         <v/>
       </c>
@@ -15716,7 +15700,7 @@
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="str">
+      <c r="A76" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A76,Concepts!A76:A500,1), "")</f>
         <v/>
       </c>
@@ -15727,7 +15711,7 @@
       <c r="F76" s="8"/>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="str">
+      <c r="A77" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A77,Concepts!A77:A500,1), "")</f>
         <v/>
       </c>
@@ -15738,7 +15722,7 @@
       <c r="F77" s="8"/>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="str">
+      <c r="A78" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A78,Concepts!A78:A500,1), "")</f>
         <v/>
       </c>
@@ -15749,7 +15733,7 @@
       <c r="F78" s="8"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="str">
+      <c r="A79" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A79,Concepts!A79:A500,1), "")</f>
         <v/>
       </c>
@@ -15760,7 +15744,7 @@
       <c r="F79" s="8"/>
     </row>
     <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="str">
+      <c r="A80" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A80,Concepts!A80:A500,1), "")</f>
         <v/>
       </c>
@@ -15771,7 +15755,7 @@
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="str">
+      <c r="A81" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A81,Concepts!A81:A500,1), "")</f>
         <v/>
       </c>
@@ -15782,7 +15766,7 @@
       <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="str">
+      <c r="A82" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A82,Concepts!A82:A500,1), "")</f>
         <v/>
       </c>
@@ -15793,7 +15777,7 @@
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="str">
+      <c r="A83" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A83,Concepts!A83:A500,1), "")</f>
         <v/>
       </c>
@@ -15804,7 +15788,7 @@
       <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="str">
+      <c r="A84" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A84,Concepts!A84:A500,1), "")</f>
         <v/>
       </c>
@@ -15815,7 +15799,7 @@
       <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="str">
+      <c r="A85" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A85,Concepts!A85:A500,1), "")</f>
         <v/>
       </c>
@@ -15826,7 +15810,7 @@
       <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="str">
+      <c r="A86" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A86,Concepts!A86:A500,1), "")</f>
         <v/>
       </c>
@@ -15837,7 +15821,7 @@
       <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="str">
+      <c r="A87" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A87,Concepts!A87:A500,1), "")</f>
         <v/>
       </c>
@@ -15848,7 +15832,7 @@
       <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="str">
+      <c r="A88" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A88,Concepts!A88:A500,1), "")</f>
         <v/>
       </c>
@@ -15859,7 +15843,7 @@
       <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="str">
+      <c r="A89" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A89,Concepts!A89:A500,1), "")</f>
         <v/>
       </c>
@@ -15870,7 +15854,7 @@
       <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="str">
+      <c r="A90" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A90,Concepts!A90:A500,1), "")</f>
         <v/>
       </c>
@@ -15881,7 +15865,7 @@
       <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="str">
+      <c r="A91" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A91,Concepts!A91:A500,1), "")</f>
         <v/>
       </c>
@@ -15892,7 +15876,7 @@
       <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="str">
+      <c r="A92" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A92,Concepts!A92:A500,1), "")</f>
         <v/>
       </c>
@@ -15903,7 +15887,7 @@
       <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="str">
+      <c r="A93" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A93,Concepts!A93:A500,1), "")</f>
         <v/>
       </c>
@@ -15914,7 +15898,7 @@
       <c r="F93" s="8"/>
     </row>
     <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="str">
+      <c r="A94" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A94,Concepts!A94:A500,1), "")</f>
         <v/>
       </c>
@@ -15925,7 +15909,7 @@
       <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="str">
+      <c r="A95" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A95,Concepts!A95:A500,1), "")</f>
         <v/>
       </c>
@@ -15936,7 +15920,7 @@
       <c r="F95" s="8"/>
     </row>
     <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="str">
+      <c r="A96" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A96,Concepts!A96:A500,1), "")</f>
         <v/>
       </c>
@@ -15947,7 +15931,7 @@
       <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="str">
+      <c r="A97" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A97,Concepts!A97:A500,1), "")</f>
         <v/>
       </c>
@@ -15958,7 +15942,7 @@
       <c r="F97" s="8"/>
     </row>
     <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="str">
+      <c r="A98" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A98,Concepts!A98:A500,1), "")</f>
         <v/>
       </c>
@@ -15969,7 +15953,7 @@
       <c r="F98" s="8"/>
     </row>
     <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="str">
+      <c r="A99" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A99,Concepts!A99:A500,1), "")</f>
         <v/>
       </c>
@@ -15980,7 +15964,7 @@
       <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="str">
+      <c r="A100" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A100,Concepts!A100:A500,1), "")</f>
         <v/>
       </c>
@@ -15991,7 +15975,7 @@
       <c r="F100" s="8"/>
     </row>
     <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="str">
+      <c r="A101" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A101,Concepts!A101:A500,1), "")</f>
         <v/>
       </c>
@@ -16002,7 +15986,7 @@
       <c r="F101" s="8"/>
     </row>
     <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="str">
+      <c r="A102" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A102,Concepts!A102:A500,1), "")</f>
         <v/>
       </c>
@@ -16013,7 +15997,7 @@
       <c r="F102" s="8"/>
     </row>
     <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="str">
+      <c r="A103" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A103,Concepts!A103:A500,1), "")</f>
         <v/>
       </c>
@@ -16024,7 +16008,7 @@
       <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="str">
+      <c r="A104" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A104,Concepts!A104:A500,1), "")</f>
         <v/>
       </c>
@@ -16035,7 +16019,7 @@
       <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="str">
+      <c r="A105" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A105,Concepts!A105:A500,1), "")</f>
         <v/>
       </c>
@@ -16046,7 +16030,7 @@
       <c r="F105" s="8"/>
     </row>
     <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="str">
+      <c r="A106" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A106,Concepts!A106:A500,1), "")</f>
         <v/>
       </c>
@@ -16057,7 +16041,7 @@
       <c r="F106" s="8"/>
     </row>
     <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="str">
+      <c r="A107" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A107,Concepts!A107:A500,1), "")</f>
         <v/>
       </c>
@@ -16068,7 +16052,7 @@
       <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="str">
+      <c r="A108" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A108,Concepts!A108:A500,1), "")</f>
         <v/>
       </c>
@@ -16079,7 +16063,7 @@
       <c r="F108" s="8"/>
     </row>
     <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="str">
+      <c r="A109" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A109,Concepts!A109:A500,1), "")</f>
         <v/>
       </c>
@@ -16090,7 +16074,7 @@
       <c r="F109" s="8"/>
     </row>
     <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="str">
+      <c r="A110" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A110,Concepts!A110:A500,1), "")</f>
         <v/>
       </c>
@@ -16101,7 +16085,7 @@
       <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="str">
+      <c r="A111" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A111,Concepts!A111:A500,1), "")</f>
         <v/>
       </c>
@@ -16112,7 +16096,7 @@
       <c r="F111" s="8"/>
     </row>
     <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="str">
+      <c r="A112" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A112,Concepts!A112:A500,1), "")</f>
         <v/>
       </c>
@@ -16123,7 +16107,7 @@
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="str">
+      <c r="A113" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A113,Concepts!A113:A500,1), "")</f>
         <v/>
       </c>
@@ -16134,7 +16118,7 @@
       <c r="F113" s="8"/>
     </row>
     <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="str">
+      <c r="A114" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A114,Concepts!A114:A500,1), "")</f>
         <v/>
       </c>
@@ -16145,7 +16129,7 @@
       <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="str">
+      <c r="A115" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A115,Concepts!A115:A500,1), "")</f>
         <v/>
       </c>
@@ -16156,7 +16140,7 @@
       <c r="F115" s="8"/>
     </row>
     <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="str">
+      <c r="A116" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A116,Concepts!A116:A500,1), "")</f>
         <v/>
       </c>
@@ -16167,7 +16151,7 @@
       <c r="F116" s="8"/>
     </row>
     <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="str">
+      <c r="A117" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A117,Concepts!A117:A500,1), "")</f>
         <v/>
       </c>
@@ -16178,7 +16162,7 @@
       <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="str">
+      <c r="A118" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A118,Concepts!A118:A500,1), "")</f>
         <v/>
       </c>
@@ -16189,7 +16173,7 @@
       <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="str">
+      <c r="A119" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A119,Concepts!A119:A500,1), "")</f>
         <v/>
       </c>
@@ -16200,7 +16184,7 @@
       <c r="F119" s="8"/>
     </row>
     <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="str">
+      <c r="A120" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A120,Concepts!A120:A500,1), "")</f>
         <v/>
       </c>
@@ -16211,7 +16195,7 @@
       <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="str">
+      <c r="A121" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A121,Concepts!A121:A500,1), "")</f>
         <v/>
       </c>
@@ -16222,7 +16206,7 @@
       <c r="F121" s="8"/>
     </row>
     <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="str">
+      <c r="A122" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A122,Concepts!A122:A500,1), "")</f>
         <v/>
       </c>
@@ -16233,7 +16217,7 @@
       <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="str">
+      <c r="A123" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A123,Concepts!A123:A500,1), "")</f>
         <v/>
       </c>
@@ -16244,7 +16228,7 @@
       <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="str">
+      <c r="A124" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A124,Concepts!A124:A500,1), "")</f>
         <v/>
       </c>
@@ -16255,7 +16239,7 @@
       <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="str">
+      <c r="A125" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A125,Concepts!A125:A500,1), "")</f>
         <v/>
       </c>
@@ -16266,7 +16250,7 @@
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="str">
+      <c r="A126" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A126,Concepts!A126:A500,1), "")</f>
         <v/>
       </c>
@@ -16277,7 +16261,7 @@
       <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="str">
+      <c r="A127" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A127,Concepts!A127:A500,1), "")</f>
         <v/>
       </c>
@@ -16288,7 +16272,7 @@
       <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="str">
+      <c r="A128" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A128,Concepts!A128:A500,1), "")</f>
         <v/>
       </c>
@@ -16299,7 +16283,7 @@
       <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="str">
+      <c r="A129" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A129,Concepts!A129:A500,1), "")</f>
         <v/>
       </c>
@@ -16310,7 +16294,7 @@
       <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="str">
+      <c r="A130" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A130,Concepts!A130:A500,1), "")</f>
         <v/>
       </c>
@@ -16321,7 +16305,7 @@
       <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="str">
+      <c r="A131" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A131,Concepts!A131:A500,1), "")</f>
         <v/>
       </c>
@@ -16332,7 +16316,7 @@
       <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="str">
+      <c r="A132" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A132,Concepts!A132:A500,1), "")</f>
         <v/>
       </c>
@@ -16343,7 +16327,7 @@
       <c r="F132" s="8"/>
     </row>
     <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="str">
+      <c r="A133" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A133,Concepts!A133:A500,1), "")</f>
         <v/>
       </c>
@@ -16354,7 +16338,7 @@
       <c r="F133" s="8"/>
     </row>
     <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="str">
+      <c r="A134" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A134,Concepts!A134:A500,1), "")</f>
         <v/>
       </c>
@@ -16365,7 +16349,7 @@
       <c r="F134" s="8"/>
     </row>
     <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="str">
+      <c r="A135" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A135,Concepts!A135:A500,1), "")</f>
         <v/>
       </c>
@@ -16376,7 +16360,7 @@
       <c r="F135" s="8"/>
     </row>
     <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="str">
+      <c r="A136" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A136,Concepts!A136:A500,1), "")</f>
         <v/>
       </c>
@@ -16387,7 +16371,7 @@
       <c r="F136" s="8"/>
     </row>
     <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="str">
+      <c r="A137" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A137,Concepts!A137:A500,1), "")</f>
         <v/>
       </c>
@@ -16398,7 +16382,7 @@
       <c r="F137" s="8"/>
     </row>
     <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="str">
+      <c r="A138" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A138,Concepts!A138:A500,1), "")</f>
         <v/>
       </c>
@@ -16409,7 +16393,7 @@
       <c r="F138" s="8"/>
     </row>
     <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="str">
+      <c r="A139" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A139,Concepts!A139:A500,1), "")</f>
         <v/>
       </c>
@@ -16420,7 +16404,7 @@
       <c r="F139" s="8"/>
     </row>
     <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="str">
+      <c r="A140" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A140,Concepts!A140:A500,1), "")</f>
         <v/>
       </c>
@@ -16431,7 +16415,7 @@
       <c r="F140" s="8"/>
     </row>
     <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="str">
+      <c r="A141" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A141,Concepts!A141:A500,1), "")</f>
         <v/>
       </c>
@@ -16442,7 +16426,7 @@
       <c r="F141" s="8"/>
     </row>
     <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="str">
+      <c r="A142" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A142,Concepts!A142:A500,1), "")</f>
         <v/>
       </c>
@@ -16453,7 +16437,7 @@
       <c r="F142" s="8"/>
     </row>
     <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="str">
+      <c r="A143" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A143,Concepts!A143:A500,1), "")</f>
         <v/>
       </c>
@@ -16464,7 +16448,7 @@
       <c r="F143" s="8"/>
     </row>
     <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="str">
+      <c r="A144" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A144,Concepts!A144:A500,1), "")</f>
         <v/>
       </c>
@@ -16475,7 +16459,7 @@
       <c r="F144" s="8"/>
     </row>
     <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="str">
+      <c r="A145" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A145,Concepts!A145:A500,1), "")</f>
         <v/>
       </c>
@@ -16486,7 +16470,7 @@
       <c r="F145" s="8"/>
     </row>
     <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="str">
+      <c r="A146" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A146,Concepts!A146:A500,1), "")</f>
         <v/>
       </c>
@@ -16497,7 +16481,7 @@
       <c r="F146" s="8"/>
     </row>
     <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="str">
+      <c r="A147" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A147,Concepts!A147:A500,1), "")</f>
         <v/>
       </c>
@@ -16508,7 +16492,7 @@
       <c r="F147" s="8"/>
     </row>
     <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="str">
+      <c r="A148" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A148,Concepts!A148:A500,1), "")</f>
         <v/>
       </c>
@@ -16519,7 +16503,7 @@
       <c r="F148" s="8"/>
     </row>
     <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="str">
+      <c r="A149" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A149,Concepts!A149:A500,1), "")</f>
         <v/>
       </c>
@@ -16530,7 +16514,7 @@
       <c r="F149" s="8"/>
     </row>
     <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="str">
+      <c r="A150" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A150,Concepts!A150:A500,1), "")</f>
         <v/>
       </c>
@@ -16541,7 +16525,7 @@
       <c r="F150" s="8"/>
     </row>
     <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="str">
+      <c r="A151" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A151,Concepts!A151:A500,1), "")</f>
         <v/>
       </c>
@@ -16552,7 +16536,7 @@
       <c r="F151" s="8"/>
     </row>
     <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="str">
+      <c r="A152" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A152,Concepts!A152:A500,1), "")</f>
         <v/>
       </c>
@@ -16563,7 +16547,7 @@
       <c r="F152" s="8"/>
     </row>
     <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="str">
+      <c r="A153" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A153,Concepts!A153:A500,1), "")</f>
         <v/>
       </c>
@@ -16574,7 +16558,7 @@
       <c r="F153" s="8"/>
     </row>
     <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="str">
+      <c r="A154" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A154,Concepts!A154:A500,1), "")</f>
         <v/>
       </c>
@@ -16585,7 +16569,7 @@
       <c r="F154" s="8"/>
     </row>
     <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="str">
+      <c r="A155" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A155,Concepts!A155:A500,1), "")</f>
         <v/>
       </c>
@@ -16596,7 +16580,7 @@
       <c r="F155" s="8"/>
     </row>
     <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="str">
+      <c r="A156" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A156,Concepts!A156:A500,1), "")</f>
         <v/>
       </c>
@@ -16607,7 +16591,7 @@
       <c r="F156" s="8"/>
     </row>
     <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="str">
+      <c r="A157" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A157,Concepts!A157:A500,1), "")</f>
         <v/>
       </c>
@@ -16618,7 +16602,7 @@
       <c r="F157" s="8"/>
     </row>
     <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="str">
+      <c r="A158" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A158,Concepts!A158:A500,1), "")</f>
         <v/>
       </c>
@@ -16629,7 +16613,7 @@
       <c r="F158" s="8"/>
     </row>
     <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="str">
+      <c r="A159" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A159,Concepts!A159:A500,1), "")</f>
         <v/>
       </c>
@@ -16640,7 +16624,7 @@
       <c r="F159" s="8"/>
     </row>
     <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="str">
+      <c r="A160" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A160,Concepts!A160:A500,1), "")</f>
         <v/>
       </c>
@@ -16651,7 +16635,7 @@
       <c r="F160" s="8"/>
     </row>
     <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="str">
+      <c r="A161" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A161,Concepts!A161:A500,1), "")</f>
         <v/>
       </c>
@@ -16662,7 +16646,7 @@
       <c r="F161" s="8"/>
     </row>
     <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="str">
+      <c r="A162" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A162,Concepts!A162:A500,1), "")</f>
         <v/>
       </c>
@@ -16673,7 +16657,7 @@
       <c r="F162" s="8"/>
     </row>
     <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="str">
+      <c r="A163" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A163,Concepts!A163:A500,1), "")</f>
         <v/>
       </c>
@@ -16684,7 +16668,7 @@
       <c r="F163" s="8"/>
     </row>
     <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="str">
+      <c r="A164" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A164,Concepts!A164:A500,1), "")</f>
         <v/>
       </c>
@@ -16695,7 +16679,7 @@
       <c r="F164" s="8"/>
     </row>
     <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="str">
+      <c r="A165" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A165,Concepts!A165:A500,1), "")</f>
         <v/>
       </c>
@@ -16706,7 +16690,7 @@
       <c r="F165" s="8"/>
     </row>
     <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="str">
+      <c r="A166" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A166,Concepts!A166:A500,1), "")</f>
         <v/>
       </c>
@@ -16717,7 +16701,7 @@
       <c r="F166" s="8"/>
     </row>
     <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="str">
+      <c r="A167" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A167,Concepts!A167:A500,1), "")</f>
         <v/>
       </c>
@@ -16728,7 +16712,7 @@
       <c r="F167" s="8"/>
     </row>
     <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="6" t="str">
+      <c r="A168" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A168,Concepts!A168:A500,1), "")</f>
         <v/>
       </c>
@@ -16739,7 +16723,7 @@
       <c r="F168" s="8"/>
     </row>
     <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="6" t="str">
+      <c r="A169" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A169,Concepts!A169:A500,1), "")</f>
         <v/>
       </c>
@@ -16750,7 +16734,7 @@
       <c r="F169" s="8"/>
     </row>
     <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="6" t="str">
+      <c r="A170" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A170,Concepts!A170:A500,1), "")</f>
         <v/>
       </c>
@@ -16761,7 +16745,7 @@
       <c r="F170" s="8"/>
     </row>
     <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="6" t="str">
+      <c r="A171" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A171,Concepts!A171:A500,1), "")</f>
         <v/>
       </c>
@@ -16772,7 +16756,7 @@
       <c r="F171" s="8"/>
     </row>
     <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="str">
+      <c r="A172" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A172,Concepts!A172:A500,1), "")</f>
         <v/>
       </c>
@@ -16783,7 +16767,7 @@
       <c r="F172" s="8"/>
     </row>
     <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="str">
+      <c r="A173" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A173,Concepts!A173:A500,1), "")</f>
         <v/>
       </c>
@@ -16794,7 +16778,7 @@
       <c r="F173" s="8"/>
     </row>
     <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="str">
+      <c r="A174" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A174,Concepts!A174:A500,1), "")</f>
         <v/>
       </c>
@@ -16805,7 +16789,7 @@
       <c r="F174" s="8"/>
     </row>
     <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="str">
+      <c r="A175" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A175,Concepts!A175:A500,1), "")</f>
         <v/>
       </c>
@@ -16816,7 +16800,7 @@
       <c r="F175" s="8"/>
     </row>
     <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="str">
+      <c r="A176" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A176,Concepts!A176:A500,1), "")</f>
         <v/>
       </c>
@@ -16827,7 +16811,7 @@
       <c r="F176" s="8"/>
     </row>
     <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="str">
+      <c r="A177" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A177,Concepts!A177:A500,1), "")</f>
         <v/>
       </c>
@@ -16838,7 +16822,7 @@
       <c r="F177" s="8"/>
     </row>
     <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="str">
+      <c r="A178" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A178,Concepts!A178:A500,1), "")</f>
         <v/>
       </c>
@@ -16849,7 +16833,7 @@
       <c r="F178" s="8"/>
     </row>
     <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="str">
+      <c r="A179" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A179,Concepts!A179:A500,1), "")</f>
         <v/>
       </c>
@@ -16860,7 +16844,7 @@
       <c r="F179" s="8"/>
     </row>
     <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="str">
+      <c r="A180" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A180,Concepts!A180:A500,1), "")</f>
         <v/>
       </c>
@@ -16871,7 +16855,7 @@
       <c r="F180" s="8"/>
     </row>
     <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="str">
+      <c r="A181" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A181,Concepts!A181:A500,1), "")</f>
         <v/>
       </c>
@@ -16882,7 +16866,7 @@
       <c r="F181" s="8"/>
     </row>
     <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="str">
+      <c r="A182" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A182,Concepts!A182:A500,1), "")</f>
         <v/>
       </c>
@@ -16893,7 +16877,7 @@
       <c r="F182" s="8"/>
     </row>
     <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="str">
+      <c r="A183" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A183,Concepts!A183:A500,1), "")</f>
         <v/>
       </c>
@@ -16904,7 +16888,7 @@
       <c r="F183" s="8"/>
     </row>
     <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="str">
+      <c r="A184" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A184,Concepts!A184:A500,1), "")</f>
         <v/>
       </c>
@@ -16915,7 +16899,7 @@
       <c r="F184" s="8"/>
     </row>
     <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="str">
+      <c r="A185" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A185,Concepts!A185:A500,1), "")</f>
         <v/>
       </c>
@@ -16926,7 +16910,7 @@
       <c r="F185" s="8"/>
     </row>
     <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="str">
+      <c r="A186" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A186,Concepts!A186:A500,1), "")</f>
         <v/>
       </c>
@@ -16937,7 +16921,7 @@
       <c r="F186" s="8"/>
     </row>
     <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="str">
+      <c r="A187" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A187,Concepts!A187:A500,1), "")</f>
         <v/>
       </c>
@@ -16948,7 +16932,7 @@
       <c r="F187" s="8"/>
     </row>
     <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="6" t="str">
+      <c r="A188" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A188,Concepts!A188:A500,1), "")</f>
         <v/>
       </c>
@@ -16959,7 +16943,7 @@
       <c r="F188" s="8"/>
     </row>
     <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="str">
+      <c r="A189" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A189,Concepts!A189:A500,1), "")</f>
         <v/>
       </c>
@@ -16970,7 +16954,7 @@
       <c r="F189" s="8"/>
     </row>
     <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="6" t="str">
+      <c r="A190" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A190,Concepts!A190:A500,1), "")</f>
         <v/>
       </c>
@@ -16981,7 +16965,7 @@
       <c r="F190" s="8"/>
     </row>
     <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="str">
+      <c r="A191" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A191,Concepts!A191:A500,1), "")</f>
         <v/>
       </c>
@@ -16992,7 +16976,7 @@
       <c r="F191" s="8"/>
     </row>
     <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="6" t="str">
+      <c r="A192" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A192,Concepts!A192:A500,1), "")</f>
         <v/>
       </c>
@@ -17003,7 +16987,7 @@
       <c r="F192" s="8"/>
     </row>
     <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="str">
+      <c r="A193" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A193,Concepts!A193:A500,1), "")</f>
         <v/>
       </c>
@@ -17014,7 +16998,7 @@
       <c r="F193" s="8"/>
     </row>
     <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="str">
+      <c r="A194" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A194,Concepts!A194:A500,1), "")</f>
         <v/>
       </c>
@@ -17025,7 +17009,7 @@
       <c r="F194" s="8"/>
     </row>
     <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="str">
+      <c r="A195" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A195,Concepts!A195:A500,1), "")</f>
         <v/>
       </c>
@@ -17036,7 +17020,7 @@
       <c r="F195" s="8"/>
     </row>
     <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="str">
+      <c r="A196" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A196,Concepts!A196:A500,1), "")</f>
         <v/>
       </c>
@@ -17047,7 +17031,7 @@
       <c r="F196" s="8"/>
     </row>
     <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="str">
+      <c r="A197" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A197,Concepts!A197:A500,1), "")</f>
         <v/>
       </c>
@@ -17058,7 +17042,7 @@
       <c r="F197" s="8"/>
     </row>
     <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="str">
+      <c r="A198" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A198,Concepts!A198:A500,1), "")</f>
         <v/>
       </c>
@@ -17069,7 +17053,7 @@
       <c r="F198" s="8"/>
     </row>
     <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="str">
+      <c r="A199" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A199,Concepts!A199:A500,1), "")</f>
         <v/>
       </c>
@@ -17080,7 +17064,7 @@
       <c r="F199" s="8"/>
     </row>
     <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="str">
+      <c r="A200" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A200,Concepts!A200:A500,1), "")</f>
         <v/>
       </c>
@@ -17091,7 +17075,7 @@
       <c r="F200" s="8"/>
     </row>
     <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="str">
+      <c r="A201" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A201,Concepts!A201:A500,1), "")</f>
         <v/>
       </c>
@@ -17102,7 +17086,7 @@
       <c r="F201" s="8"/>
     </row>
     <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="str">
+      <c r="A202" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A202,Concepts!A202:A500,1), "")</f>
         <v/>
       </c>
@@ -17113,7 +17097,7 @@
       <c r="F202" s="8"/>
     </row>
     <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="str">
+      <c r="A203" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A203,Concepts!A203:A500,1), "")</f>
         <v/>
       </c>
@@ -17124,7 +17108,7 @@
       <c r="F203" s="8"/>
     </row>
     <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="6" t="str">
+      <c r="A204" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A204,Concepts!A204:A500,1), "")</f>
         <v/>
       </c>
@@ -17135,7 +17119,7 @@
       <c r="F204" s="8"/>
     </row>
     <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="str">
+      <c r="A205" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A205,Concepts!A205:A500,1), "")</f>
         <v/>
       </c>
@@ -17146,7 +17130,7 @@
       <c r="F205" s="8"/>
     </row>
     <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="6" t="str">
+      <c r="A206" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A206,Concepts!A206:A500,1), "")</f>
         <v/>
       </c>
@@ -17157,7 +17141,7 @@
       <c r="F206" s="8"/>
     </row>
     <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="str">
+      <c r="A207" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A207,Concepts!A207:A500,1), "")</f>
         <v/>
       </c>
@@ -17168,7 +17152,7 @@
       <c r="F207" s="8"/>
     </row>
     <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="str">
+      <c r="A208" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A208,Concepts!A208:A500,1), "")</f>
         <v/>
       </c>
@@ -17179,7 +17163,7 @@
       <c r="F208" s="8"/>
     </row>
     <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="str">
+      <c r="A209" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A209,Concepts!A209:A500,1), "")</f>
         <v/>
       </c>
@@ -17190,7 +17174,7 @@
       <c r="F209" s="8"/>
     </row>
     <row r="210" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="str">
+      <c r="A210" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A210,Concepts!A210:A500,1), "")</f>
         <v/>
       </c>
@@ -17201,7 +17185,7 @@
       <c r="F210" s="8"/>
     </row>
     <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="str">
+      <c r="A211" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A211,Concepts!A211:A500,1), "")</f>
         <v/>
       </c>
@@ -17212,7 +17196,7 @@
       <c r="F211" s="8"/>
     </row>
     <row r="212" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="6" t="str">
+      <c r="A212" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A212,Concepts!A212:A500,1), "")</f>
         <v/>
       </c>
@@ -17223,7 +17207,7 @@
       <c r="F212" s="8"/>
     </row>
     <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="6" t="str">
+      <c r="A213" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A213,Concepts!A213:A500,1), "")</f>
         <v/>
       </c>
@@ -17234,7 +17218,7 @@
       <c r="F213" s="8"/>
     </row>
     <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="str">
+      <c r="A214" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A214,Concepts!A214:A500,1), "")</f>
         <v/>
       </c>
@@ -17245,7 +17229,7 @@
       <c r="F214" s="8"/>
     </row>
     <row r="215" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="6" t="str">
+      <c r="A215" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A215,Concepts!A215:A500,1), "")</f>
         <v/>
       </c>
@@ -17256,7 +17240,7 @@
       <c r="F215" s="8"/>
     </row>
     <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="str">
+      <c r="A216" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A216,Concepts!A216:A500,1), "")</f>
         <v/>
       </c>
@@ -17267,7 +17251,7 @@
       <c r="F216" s="8"/>
     </row>
     <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="str">
+      <c r="A217" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A217,Concepts!A217:A500,1), "")</f>
         <v/>
       </c>
@@ -17278,7 +17262,7 @@
       <c r="F217" s="8"/>
     </row>
     <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="6" t="str">
+      <c r="A218" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A218,Concepts!A218:A500,1), "")</f>
         <v/>
       </c>
@@ -17289,7 +17273,7 @@
       <c r="F218" s="8"/>
     </row>
     <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="6" t="str">
+      <c r="A219" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A219,Concepts!A219:A500,1), "")</f>
         <v/>
       </c>
@@ -17300,7 +17284,7 @@
       <c r="F219" s="8"/>
     </row>
     <row r="220" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="str">
+      <c r="A220" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A220,Concepts!A220:A500,1), "")</f>
         <v/>
       </c>
@@ -17311,7 +17295,7 @@
       <c r="F220" s="8"/>
     </row>
     <row r="221" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="str">
+      <c r="A221" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A221,Concepts!A221:A500,1), "")</f>
         <v/>
       </c>
@@ -17322,7 +17306,7 @@
       <c r="F221" s="8"/>
     </row>
     <row r="222" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="str">
+      <c r="A222" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A222,Concepts!A222:A500,1), "")</f>
         <v/>
       </c>
@@ -17333,7 +17317,7 @@
       <c r="F222" s="8"/>
     </row>
     <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="str">
+      <c r="A223" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A223,Concepts!A223:A500,1), "")</f>
         <v/>
       </c>
@@ -17344,7 +17328,7 @@
       <c r="F223" s="8"/>
     </row>
     <row r="224" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="str">
+      <c r="A224" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A224,Concepts!A224:A500,1), "")</f>
         <v/>
       </c>
@@ -17355,7 +17339,7 @@
       <c r="F224" s="8"/>
     </row>
     <row r="225" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="str">
+      <c r="A225" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A225,Concepts!A225:A500,1), "")</f>
         <v/>
       </c>
@@ -17366,7 +17350,7 @@
       <c r="F225" s="8"/>
     </row>
     <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="str">
+      <c r="A226" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A226,Concepts!A226:A500,1), "")</f>
         <v/>
       </c>
@@ -17377,7 +17361,7 @@
       <c r="F226" s="8"/>
     </row>
     <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="6" t="str">
+      <c r="A227" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A227,Concepts!A227:A500,1), "")</f>
         <v/>
       </c>
@@ -17388,7 +17372,7 @@
       <c r="F227" s="8"/>
     </row>
     <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="str">
+      <c r="A228" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A228,Concepts!A228:A500,1), "")</f>
         <v/>
       </c>
@@ -17399,7 +17383,7 @@
       <c r="F228" s="8"/>
     </row>
     <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="6" t="str">
+      <c r="A229" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A229,Concepts!A229:A500,1), "")</f>
         <v/>
       </c>
@@ -17410,7 +17394,7 @@
       <c r="F229" s="8"/>
     </row>
     <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="str">
+      <c r="A230" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A230,Concepts!A230:A500,1), "")</f>
         <v/>
       </c>
@@ -17421,7 +17405,7 @@
       <c r="F230" s="8"/>
     </row>
     <row r="231" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="str">
+      <c r="A231" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A231,Concepts!A231:A500,1), "")</f>
         <v/>
       </c>
@@ -17432,7 +17416,7 @@
       <c r="F231" s="8"/>
     </row>
     <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="6" t="str">
+      <c r="A232" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A232,Concepts!A232:A500,1), "")</f>
         <v/>
       </c>
@@ -17443,7 +17427,7 @@
       <c r="F232" s="8"/>
     </row>
     <row r="233" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="6" t="str">
+      <c r="A233" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A233,Concepts!A233:A500,1), "")</f>
         <v/>
       </c>
@@ -17454,7 +17438,7 @@
       <c r="F233" s="8"/>
     </row>
     <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="6" t="str">
+      <c r="A234" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A234,Concepts!A234:A500,1), "")</f>
         <v/>
       </c>
@@ -17465,7 +17449,7 @@
       <c r="F234" s="8"/>
     </row>
     <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="6" t="str">
+      <c r="A235" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A235,Concepts!A235:A500,1), "")</f>
         <v/>
       </c>
@@ -17476,7 +17460,7 @@
       <c r="F235" s="8"/>
     </row>
     <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A236" s="6" t="str">
+      <c r="A236" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A236,Concepts!A236:A500,1), "")</f>
         <v/>
       </c>
@@ -17487,7 +17471,7 @@
       <c r="F236" s="8"/>
     </row>
     <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A237" s="6" t="str">
+      <c r="A237" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A237,Concepts!A237:A500,1), "")</f>
         <v/>
       </c>
@@ -17498,7 +17482,7 @@
       <c r="F237" s="8"/>
     </row>
     <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A238" s="6" t="str">
+      <c r="A238" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A238,Concepts!A238:A500,1), "")</f>
         <v/>
       </c>
@@ -17509,7 +17493,7 @@
       <c r="F238" s="8"/>
     </row>
     <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="str">
+      <c r="A239" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A239,Concepts!A239:A500,1), "")</f>
         <v/>
       </c>
@@ -17520,7 +17504,7 @@
       <c r="F239" s="8"/>
     </row>
     <row r="240" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="6" t="str">
+      <c r="A240" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A240,Concepts!A240:A500,1), "")</f>
         <v/>
       </c>
@@ -17531,7 +17515,7 @@
       <c r="F240" s="8"/>
     </row>
     <row r="241" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="str">
+      <c r="A241" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A241,Concepts!A241:A500,1), "")</f>
         <v/>
       </c>
@@ -17542,7 +17526,7 @@
       <c r="F241" s="8"/>
     </row>
     <row r="242" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="6" t="str">
+      <c r="A242" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A242,Concepts!A242:A500,1), "")</f>
         <v/>
       </c>
@@ -17553,7 +17537,7 @@
       <c r="F242" s="8"/>
     </row>
     <row r="243" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="6" t="str">
+      <c r="A243" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A243,Concepts!A243:A500,1), "")</f>
         <v/>
       </c>
@@ -17564,7 +17548,7 @@
       <c r="F243" s="8"/>
     </row>
     <row r="244" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="6" t="str">
+      <c r="A244" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A244,Concepts!A244:A500,1), "")</f>
         <v/>
       </c>
@@ -17575,7 +17559,7 @@
       <c r="F244" s="8"/>
     </row>
     <row r="245" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="str">
+      <c r="A245" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A245,Concepts!A245:A500,1), "")</f>
         <v/>
       </c>
@@ -17586,7 +17570,7 @@
       <c r="F245" s="8"/>
     </row>
     <row r="246" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="6" t="str">
+      <c r="A246" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A246,Concepts!A246:A500,1), "")</f>
         <v/>
       </c>
@@ -17597,7 +17581,7 @@
       <c r="F246" s="8"/>
     </row>
     <row r="247" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="6" t="str">
+      <c r="A247" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A247,Concepts!A247:A500,1), "")</f>
         <v/>
       </c>
@@ -17608,7 +17592,7 @@
       <c r="F247" s="8"/>
     </row>
     <row r="248" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="6" t="str">
+      <c r="A248" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A248,Concepts!A248:A500,1), "")</f>
         <v/>
       </c>
@@ -17619,7 +17603,7 @@
       <c r="F248" s="8"/>
     </row>
     <row r="249" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="6" t="str">
+      <c r="A249" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A249,Concepts!A249:A500,1), "")</f>
         <v/>
       </c>
@@ -17630,7 +17614,7 @@
       <c r="F249" s="8"/>
     </row>
     <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="6" t="str">
+      <c r="A250" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A250,Concepts!A250:A500,1), "")</f>
         <v/>
       </c>
@@ -17641,7 +17625,7 @@
       <c r="F250" s="8"/>
     </row>
     <row r="251" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="6" t="str">
+      <c r="A251" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A251,Concepts!A251:A500,1), "")</f>
         <v/>
       </c>
@@ -17652,7 +17636,7 @@
       <c r="F251" s="8"/>
     </row>
     <row r="252" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="6" t="str">
+      <c r="A252" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A252,Concepts!A252:A500,1), "")</f>
         <v/>
       </c>
@@ -17663,7 +17647,7 @@
       <c r="F252" s="8"/>
     </row>
     <row r="253" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="6" t="str">
+      <c r="A253" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A253,Concepts!A253:A500,1), "")</f>
         <v/>
       </c>
@@ -17674,7 +17658,7 @@
       <c r="F253" s="8"/>
     </row>
     <row r="254" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A254" s="6" t="str">
+      <c r="A254" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A254,Concepts!A254:A500,1), "")</f>
         <v/>
       </c>
@@ -17685,7 +17669,7 @@
       <c r="F254" s="8"/>
     </row>
     <row r="255" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A255" s="6" t="str">
+      <c r="A255" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A255,Concepts!A255:A500,1), "")</f>
         <v/>
       </c>
@@ -17696,7 +17680,7 @@
       <c r="F255" s="8"/>
     </row>
     <row r="256" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="str">
+      <c r="A256" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A256,Concepts!A256:A500,1), "")</f>
         <v/>
       </c>
@@ -17707,7 +17691,7 @@
       <c r="F256" s="8"/>
     </row>
     <row r="257" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="6" t="str">
+      <c r="A257" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A257,Concepts!A257:A500,1), "")</f>
         <v/>
       </c>
@@ -17718,7 +17702,7 @@
       <c r="F257" s="8"/>
     </row>
     <row r="258" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="6" t="str">
+      <c r="A258" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A258,Concepts!A258:A500,1), "")</f>
         <v/>
       </c>
@@ -17729,7 +17713,7 @@
       <c r="F258" s="8"/>
     </row>
     <row r="259" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A259" s="6" t="str">
+      <c r="A259" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A259,Concepts!A259:A500,1), "")</f>
         <v/>
       </c>
@@ -17740,7 +17724,7 @@
       <c r="F259" s="8"/>
     </row>
     <row r="260" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A260" s="6" t="str">
+      <c r="A260" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A260,Concepts!A260:A500,1), "")</f>
         <v/>
       </c>
@@ -17751,7 +17735,7 @@
       <c r="F260" s="8"/>
     </row>
     <row r="261" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="6" t="str">
+      <c r="A261" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A261,Concepts!A261:A500,1), "")</f>
         <v/>
       </c>
@@ -17762,7 +17746,7 @@
       <c r="F261" s="8"/>
     </row>
     <row r="262" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="6" t="str">
+      <c r="A262" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A262,Concepts!A262:A500,1), "")</f>
         <v/>
       </c>
@@ -17773,7 +17757,7 @@
       <c r="F262" s="8"/>
     </row>
     <row r="263" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="str">
+      <c r="A263" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A263,Concepts!A263:A500,1), "")</f>
         <v/>
       </c>
@@ -17784,7 +17768,7 @@
       <c r="F263" s="8"/>
     </row>
     <row r="264" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A264" s="6" t="str">
+      <c r="A264" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A264,Concepts!A264:A500,1), "")</f>
         <v/>
       </c>
@@ -17795,7 +17779,7 @@
       <c r="F264" s="8"/>
     </row>
     <row r="265" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="6" t="str">
+      <c r="A265" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A265,Concepts!A265:A500,1), "")</f>
         <v/>
       </c>
@@ -17806,7 +17790,7 @@
       <c r="F265" s="8"/>
     </row>
     <row r="266" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="6" t="str">
+      <c r="A266" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A266,Concepts!A266:A500,1), "")</f>
         <v/>
       </c>
@@ -17817,7 +17801,7 @@
       <c r="F266" s="8"/>
     </row>
     <row r="267" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A267" s="6" t="str">
+      <c r="A267" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A267,Concepts!A267:A500,1), "")</f>
         <v/>
       </c>
@@ -17828,7 +17812,7 @@
       <c r="F267" s="8"/>
     </row>
     <row r="268" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="str">
+      <c r="A268" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A268,Concepts!A268:A500,1), "")</f>
         <v/>
       </c>
@@ -17839,7 +17823,7 @@
       <c r="F268" s="8"/>
     </row>
     <row r="269" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="6" t="str">
+      <c r="A269" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A269,Concepts!A269:A500,1), "")</f>
         <v/>
       </c>
@@ -17850,7 +17834,7 @@
       <c r="F269" s="8"/>
     </row>
     <row r="270" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="6" t="str">
+      <c r="A270" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A270,Concepts!A270:A500,1), "")</f>
         <v/>
       </c>
@@ -17861,7 +17845,7 @@
       <c r="F270" s="8"/>
     </row>
     <row r="271" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="6" t="str">
+      <c r="A271" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A271,Concepts!A271:A500,1), "")</f>
         <v/>
       </c>
@@ -17872,7 +17856,7 @@
       <c r="F271" s="8"/>
     </row>
     <row r="272" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="6" t="str">
+      <c r="A272" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A272,Concepts!A272:A500,1), "")</f>
         <v/>
       </c>
@@ -17883,7 +17867,7 @@
       <c r="F272" s="8"/>
     </row>
     <row r="273" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="str">
+      <c r="A273" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A273,Concepts!A273:A500,1), "")</f>
         <v/>
       </c>
@@ -17894,7 +17878,7 @@
       <c r="F273" s="8"/>
     </row>
     <row r="274" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="6" t="str">
+      <c r="A274" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A274,Concepts!A274:A500,1), "")</f>
         <v/>
       </c>
@@ -17905,7 +17889,7 @@
       <c r="F274" s="8"/>
     </row>
     <row r="275" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="6" t="str">
+      <c r="A275" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A275,Concepts!A275:A500,1), "")</f>
         <v/>
       </c>
@@ -17916,7 +17900,7 @@
       <c r="F275" s="8"/>
     </row>
     <row r="276" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="str">
+      <c r="A276" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A276,Concepts!A276:A500,1), "")</f>
         <v/>
       </c>
@@ -17927,7 +17911,7 @@
       <c r="F276" s="8"/>
     </row>
     <row r="277" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="str">
+      <c r="A277" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A277,Concepts!A277:A500,1), "")</f>
         <v/>
       </c>
@@ -17938,7 +17922,7 @@
       <c r="F277" s="8"/>
     </row>
     <row r="278" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="str">
+      <c r="A278" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A278,Concepts!A278:A500,1), "")</f>
         <v/>
       </c>
@@ -17949,7 +17933,7 @@
       <c r="F278" s="8"/>
     </row>
     <row r="279" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="str">
+      <c r="A279" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A279,Concepts!A279:A500,1), "")</f>
         <v/>
       </c>
@@ -17960,7 +17944,7 @@
       <c r="F279" s="8"/>
     </row>
     <row r="280" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="str">
+      <c r="A280" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A280,Concepts!A280:A500,1), "")</f>
         <v/>
       </c>
@@ -17971,7 +17955,7 @@
       <c r="F280" s="8"/>
     </row>
     <row r="281" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A281" s="6" t="str">
+      <c r="A281" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A281,Concepts!A281:A500,1), "")</f>
         <v/>
       </c>
@@ -17982,7 +17966,7 @@
       <c r="F281" s="8"/>
     </row>
     <row r="282" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A282" s="6" t="str">
+      <c r="A282" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A282,Concepts!A282:A500,1), "")</f>
         <v/>
       </c>
@@ -17993,7 +17977,7 @@
       <c r="F282" s="8"/>
     </row>
     <row r="283" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A283" s="6" t="str">
+      <c r="A283" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A283,Concepts!A283:A500,1), "")</f>
         <v/>
       </c>
@@ -18004,7 +17988,7 @@
       <c r="F283" s="8"/>
     </row>
     <row r="284" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A284" s="6" t="str">
+      <c r="A284" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A284,Concepts!A284:A500,1), "")</f>
         <v/>
       </c>
@@ -18015,7 +17999,7 @@
       <c r="F284" s="8"/>
     </row>
     <row r="285" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A285" s="6" t="str">
+      <c r="A285" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A285,Concepts!A285:A500,1), "")</f>
         <v/>
       </c>
@@ -18026,7 +18010,7 @@
       <c r="F285" s="8"/>
     </row>
     <row r="286" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="str">
+      <c r="A286" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A286,Concepts!A286:A500,1), "")</f>
         <v/>
       </c>
@@ -18037,7 +18021,7 @@
       <c r="F286" s="8"/>
     </row>
     <row r="287" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="str">
+      <c r="A287" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A287,Concepts!A287:A500,1), "")</f>
         <v/>
       </c>
@@ -18048,7 +18032,7 @@
       <c r="F287" s="8"/>
     </row>
     <row r="288" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="str">
+      <c r="A288" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A288,Concepts!A288:A500,1), "")</f>
         <v/>
       </c>
@@ -18059,7 +18043,7 @@
       <c r="F288" s="8"/>
     </row>
     <row r="289" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A289" s="6" t="str">
+      <c r="A289" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A289,Concepts!A289:A500,1), "")</f>
         <v/>
       </c>
@@ -18070,7 +18054,7 @@
       <c r="F289" s="8"/>
     </row>
     <row r="290" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="str">
+      <c r="A290" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A290,Concepts!A290:A500,1), "")</f>
         <v/>
       </c>
@@ -18081,7 +18065,7 @@
       <c r="F290" s="8"/>
     </row>
     <row r="291" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="6" t="str">
+      <c r="A291" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A291,Concepts!A291:A500,1), "")</f>
         <v/>
       </c>
@@ -18092,7 +18076,7 @@
       <c r="F291" s="8"/>
     </row>
     <row r="292" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="str">
+      <c r="A292" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A292,Concepts!A292:A500,1), "")</f>
         <v/>
       </c>
@@ -18103,7 +18087,7 @@
       <c r="F292" s="8"/>
     </row>
     <row r="293" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="str">
+      <c r="A293" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A293,Concepts!A293:A500,1), "")</f>
         <v/>
       </c>
@@ -18114,7 +18098,7 @@
       <c r="F293" s="8"/>
     </row>
     <row r="294" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="str">
+      <c r="A294" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A294,Concepts!A294:A500,1), "")</f>
         <v/>
       </c>
@@ -18125,7 +18109,7 @@
       <c r="F294" s="8"/>
     </row>
     <row r="295" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="6" t="str">
+      <c r="A295" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A295,Concepts!A295:A500,1), "")</f>
         <v/>
       </c>
@@ -18136,7 +18120,7 @@
       <c r="F295" s="8"/>
     </row>
     <row r="296" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="6" t="str">
+      <c r="A296" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A296,Concepts!A296:A500,1), "")</f>
         <v/>
       </c>
@@ -18147,7 +18131,7 @@
       <c r="F296" s="8"/>
     </row>
     <row r="297" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="6" t="str">
+      <c r="A297" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A297,Concepts!A297:A500,1), "")</f>
         <v/>
       </c>
@@ -18158,7 +18142,7 @@
       <c r="F297" s="8"/>
     </row>
     <row r="298" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="6" t="str">
+      <c r="A298" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A298,Concepts!A298:A500,1), "")</f>
         <v/>
       </c>
@@ -18169,7 +18153,7 @@
       <c r="F298" s="8"/>
     </row>
     <row r="299" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="6" t="str">
+      <c r="A299" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A299,Concepts!A299:A500,1), "")</f>
         <v/>
       </c>
@@ -18180,7 +18164,7 @@
       <c r="F299" s="8"/>
     </row>
     <row r="300" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="6" t="str">
+      <c r="A300" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A300,Concepts!A300:A500,1), "")</f>
         <v/>
       </c>
@@ -18191,7 +18175,7 @@
       <c r="F300" s="8"/>
     </row>
     <row r="301" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="6" t="str">
+      <c r="A301" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A301,Concepts!A301:A500,1), "")</f>
         <v/>
       </c>
@@ -18202,7 +18186,7 @@
       <c r="F301" s="8"/>
     </row>
     <row r="302" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="str">
+      <c r="A302" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A302,Concepts!A302:A500,1), "")</f>
         <v/>
       </c>
@@ -18213,7 +18197,7 @@
       <c r="F302" s="8"/>
     </row>
     <row r="303" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="6" t="str">
+      <c r="A303" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A303,Concepts!A303:A500,1), "")</f>
         <v/>
       </c>
@@ -18224,7 +18208,7 @@
       <c r="F303" s="8"/>
     </row>
     <row r="304" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="6" t="str">
+      <c r="A304" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A304,Concepts!A304:A500,1), "")</f>
         <v/>
       </c>
@@ -18235,7 +18219,7 @@
       <c r="F304" s="8"/>
     </row>
     <row r="305" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="6" t="str">
+      <c r="A305" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A305,Concepts!A305:A500,1), "")</f>
         <v/>
       </c>
@@ -18246,7 +18230,7 @@
       <c r="F305" s="8"/>
     </row>
     <row r="306" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="6" t="str">
+      <c r="A306" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A306,Concepts!A306:A500,1), "")</f>
         <v/>
       </c>
@@ -18257,7 +18241,7 @@
       <c r="F306" s="8"/>
     </row>
     <row r="307" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="6" t="str">
+      <c r="A307" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A307,Concepts!A307:A500,1), "")</f>
         <v/>
       </c>
@@ -18268,7 +18252,7 @@
       <c r="F307" s="8"/>
     </row>
     <row r="308" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A308" s="6" t="str">
+      <c r="A308" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A308,Concepts!A308:A500,1), "")</f>
         <v/>
       </c>
@@ -18279,7 +18263,7 @@
       <c r="F308" s="8"/>
     </row>
     <row r="309" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A309" s="6" t="str">
+      <c r="A309" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A309,Concepts!A309:A500,1), "")</f>
         <v/>
       </c>
@@ -18290,7 +18274,7 @@
       <c r="F309" s="8"/>
     </row>
     <row r="310" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="6" t="str">
+      <c r="A310" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A310,Concepts!A310:A500,1), "")</f>
         <v/>
       </c>
@@ -18301,7 +18285,7 @@
       <c r="F310" s="8"/>
     </row>
     <row r="311" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="6" t="str">
+      <c r="A311" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A311,Concepts!A311:A500,1), "")</f>
         <v/>
       </c>
@@ -18312,7 +18296,7 @@
       <c r="F311" s="8"/>
     </row>
     <row r="312" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="6" t="str">
+      <c r="A312" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A312,Concepts!A312:A500,1), "")</f>
         <v/>
       </c>
@@ -18323,7 +18307,7 @@
       <c r="F312" s="8"/>
     </row>
     <row r="313" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A313" s="6" t="str">
+      <c r="A313" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A313,Concepts!A313:A500,1), "")</f>
         <v/>
       </c>
@@ -18334,7 +18318,7 @@
       <c r="F313" s="8"/>
     </row>
     <row r="314" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A314" s="6" t="str">
+      <c r="A314" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A314,Concepts!A314:A500,1), "")</f>
         <v/>
       </c>
@@ -18345,7 +18329,7 @@
       <c r="F314" s="8"/>
     </row>
     <row r="315" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="6" t="str">
+      <c r="A315" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A315,Concepts!A315:A500,1), "")</f>
         <v/>
       </c>
@@ -18356,7 +18340,7 @@
       <c r="F315" s="8"/>
     </row>
     <row r="316" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="6" t="str">
+      <c r="A316" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A316,Concepts!A316:A500,1), "")</f>
         <v/>
       </c>
@@ -18367,7 +18351,7 @@
       <c r="F316" s="8"/>
     </row>
     <row r="317" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="6" t="str">
+      <c r="A317" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A317,Concepts!A317:A500,1), "")</f>
         <v/>
       </c>
@@ -18378,7 +18362,7 @@
       <c r="F317" s="8"/>
     </row>
     <row r="318" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="6" t="str">
+      <c r="A318" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A318,Concepts!A318:A500,1), "")</f>
         <v/>
       </c>
@@ -18389,7 +18373,7 @@
       <c r="F318" s="8"/>
     </row>
     <row r="319" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="6" t="str">
+      <c r="A319" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A319,Concepts!A319:A500,1), "")</f>
         <v/>
       </c>
@@ -18400,7 +18384,7 @@
       <c r="F319" s="8"/>
     </row>
     <row r="320" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="6" t="str">
+      <c r="A320" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A320,Concepts!A320:A500,1), "")</f>
         <v/>
       </c>
@@ -18411,7 +18395,7 @@
       <c r="F320" s="8"/>
     </row>
     <row r="321" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="6" t="str">
+      <c r="A321" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A321,Concepts!A321:A500,1), "")</f>
         <v/>
       </c>
@@ -18422,7 +18406,7 @@
       <c r="F321" s="8"/>
     </row>
     <row r="322" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="6" t="str">
+      <c r="A322" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A322,Concepts!A322:A500,1), "")</f>
         <v/>
       </c>
@@ -18433,7 +18417,7 @@
       <c r="F322" s="8"/>
     </row>
     <row r="323" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="6" t="str">
+      <c r="A323" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A323,Concepts!A323:A500,1), "")</f>
         <v/>
       </c>
@@ -18444,7 +18428,7 @@
       <c r="F323" s="8"/>
     </row>
     <row r="324" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="6" t="str">
+      <c r="A324" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A324,Concepts!A324:A500,1), "")</f>
         <v/>
       </c>
@@ -18455,7 +18439,7 @@
       <c r="F324" s="8"/>
     </row>
     <row r="325" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A325" s="6" t="str">
+      <c r="A325" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A325,Concepts!A325:A500,1), "")</f>
         <v/>
       </c>
@@ -18466,7 +18450,7 @@
       <c r="F325" s="8"/>
     </row>
     <row r="326" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A326" s="6" t="str">
+      <c r="A326" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A326,Concepts!A326:A500,1), "")</f>
         <v/>
       </c>
@@ -18477,7 +18461,7 @@
       <c r="F326" s="8"/>
     </row>
     <row r="327" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="6" t="str">
+      <c r="A327" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A327,Concepts!A327:A500,1), "")</f>
         <v/>
       </c>
@@ -18488,7 +18472,7 @@
       <c r="F327" s="8"/>
     </row>
     <row r="328" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="6" t="str">
+      <c r="A328" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A328,Concepts!A328:A500,1), "")</f>
         <v/>
       </c>
@@ -18499,7 +18483,7 @@
       <c r="F328" s="8"/>
     </row>
     <row r="329" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="6" t="str">
+      <c r="A329" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A329,Concepts!A329:A500,1), "")</f>
         <v/>
       </c>
@@ -18510,7 +18494,7 @@
       <c r="F329" s="8"/>
     </row>
     <row r="330" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A330" s="6" t="str">
+      <c r="A330" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A330,Concepts!A330:A500,1), "")</f>
         <v/>
       </c>
@@ -18521,7 +18505,7 @@
       <c r="F330" s="8"/>
     </row>
     <row r="331" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A331" s="6" t="str">
+      <c r="A331" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A331,Concepts!A331:A500,1), "")</f>
         <v/>
       </c>
@@ -18532,7 +18516,7 @@
       <c r="F331" s="8"/>
     </row>
     <row r="332" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A332" s="6" t="str">
+      <c r="A332" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A332,Concepts!A332:A500,1), "")</f>
         <v/>
       </c>
@@ -18543,7 +18527,7 @@
       <c r="F332" s="8"/>
     </row>
     <row r="333" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A333" s="6" t="str">
+      <c r="A333" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A333,Concepts!A333:A500,1), "")</f>
         <v/>
       </c>
@@ -18554,7 +18538,7 @@
       <c r="F333" s="8"/>
     </row>
     <row r="334" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A334" s="6" t="str">
+      <c r="A334" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A334,Concepts!A334:A500,1), "")</f>
         <v/>
       </c>
@@ -18565,7 +18549,7 @@
       <c r="F334" s="8"/>
     </row>
     <row r="335" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A335" s="6" t="str">
+      <c r="A335" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A335,Concepts!A335:A500,1), "")</f>
         <v/>
       </c>
@@ -18576,7 +18560,7 @@
       <c r="F335" s="8"/>
     </row>
     <row r="336" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A336" s="6" t="str">
+      <c r="A336" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A336,Concepts!A336:A500,1), "")</f>
         <v/>
       </c>
@@ -18587,7 +18571,7 @@
       <c r="F336" s="8"/>
     </row>
     <row r="337" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A337" s="6" t="str">
+      <c r="A337" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A337,Concepts!A337:A500,1), "")</f>
         <v/>
       </c>
@@ -18598,7 +18582,7 @@
       <c r="F337" s="8"/>
     </row>
     <row r="338" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A338" s="6" t="str">
+      <c r="A338" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A338,Concepts!A338:A500,1), "")</f>
         <v/>
       </c>
@@ -18609,7 +18593,7 @@
       <c r="F338" s="8"/>
     </row>
     <row r="339" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A339" s="6" t="str">
+      <c r="A339" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A339,Concepts!A339:A500,1), "")</f>
         <v/>
       </c>
@@ -18620,7 +18604,7 @@
       <c r="F339" s="8"/>
     </row>
     <row r="340" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A340" s="6" t="str">
+      <c r="A340" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A340,Concepts!A340:A500,1), "")</f>
         <v/>
       </c>
@@ -18631,7 +18615,7 @@
       <c r="F340" s="8"/>
     </row>
     <row r="341" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A341" s="6" t="str">
+      <c r="A341" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A341,Concepts!A341:A500,1), "")</f>
         <v/>
       </c>
@@ -18642,7 +18626,7 @@
       <c r="F341" s="8"/>
     </row>
     <row r="342" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A342" s="6" t="str">
+      <c r="A342" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A342,Concepts!A342:A500,1), "")</f>
         <v/>
       </c>
@@ -18653,7 +18637,7 @@
       <c r="F342" s="8"/>
     </row>
     <row r="343" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A343" s="6" t="str">
+      <c r="A343" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A343,Concepts!A343:A500,1), "")</f>
         <v/>
       </c>
@@ -18664,7 +18648,7 @@
       <c r="F343" s="8"/>
     </row>
     <row r="344" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A344" s="6" t="str">
+      <c r="A344" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A344,Concepts!A344:A500,1), "")</f>
         <v/>
       </c>
@@ -18675,7 +18659,7 @@
       <c r="F344" s="8"/>
     </row>
     <row r="345" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A345" s="6" t="str">
+      <c r="A345" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A345,Concepts!A345:A500,1), "")</f>
         <v/>
       </c>
@@ -18686,7 +18670,7 @@
       <c r="F345" s="8"/>
     </row>
     <row r="346" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A346" s="6" t="str">
+      <c r="A346" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A346,Concepts!A346:A500,1), "")</f>
         <v/>
       </c>
@@ -18697,7 +18681,7 @@
       <c r="F346" s="8"/>
     </row>
     <row r="347" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="6" t="str">
+      <c r="A347" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A347,Concepts!A347:A500,1), "")</f>
         <v/>
       </c>
@@ -18708,7 +18692,7 @@
       <c r="F347" s="8"/>
     </row>
     <row r="348" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="6" t="str">
+      <c r="A348" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A348,Concepts!A348:A500,1), "")</f>
         <v/>
       </c>
@@ -18719,7 +18703,7 @@
       <c r="F348" s="8"/>
     </row>
     <row r="349" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="6" t="str">
+      <c r="A349" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A349,Concepts!A349:A500,1), "")</f>
         <v/>
       </c>
@@ -18730,7 +18714,7 @@
       <c r="F349" s="8"/>
     </row>
     <row r="350" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="6" t="str">
+      <c r="A350" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A350,Concepts!A350:A500,1), "")</f>
         <v/>
       </c>
@@ -18741,7 +18725,7 @@
       <c r="F350" s="8"/>
     </row>
     <row r="351" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="6" t="str">
+      <c r="A351" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A351,Concepts!A351:A500,1), "")</f>
         <v/>
       </c>
@@ -18752,7 +18736,7 @@
       <c r="F351" s="8"/>
     </row>
     <row r="352" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="6" t="str">
+      <c r="A352" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A352,Concepts!A352:A500,1), "")</f>
         <v/>
       </c>
@@ -18763,7 +18747,7 @@
       <c r="F352" s="8"/>
     </row>
     <row r="353" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A353" s="6" t="str">
+      <c r="A353" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A353,Concepts!A353:A500,1), "")</f>
         <v/>
       </c>
@@ -18774,7 +18758,7 @@
       <c r="F353" s="8"/>
     </row>
     <row r="354" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A354" s="6" t="str">
+      <c r="A354" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A354,Concepts!A354:A500,1), "")</f>
         <v/>
       </c>
@@ -18785,7 +18769,7 @@
       <c r="F354" s="8"/>
     </row>
     <row r="355" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A355" s="6" t="str">
+      <c r="A355" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A355,Concepts!A355:A500,1), "")</f>
         <v/>
       </c>
@@ -18796,7 +18780,7 @@
       <c r="F355" s="8"/>
     </row>
     <row r="356" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A356" s="6" t="str">
+      <c r="A356" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A356,Concepts!A356:A500,1), "")</f>
         <v/>
       </c>
@@ -18807,7 +18791,7 @@
       <c r="F356" s="8"/>
     </row>
     <row r="357" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A357" s="6" t="str">
+      <c r="A357" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A357,Concepts!A357:A500,1), "")</f>
         <v/>
       </c>
@@ -18818,7 +18802,7 @@
       <c r="F357" s="8"/>
     </row>
     <row r="358" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A358" s="6" t="str">
+      <c r="A358" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A358,Concepts!A358:A500,1), "")</f>
         <v/>
       </c>
@@ -18829,7 +18813,7 @@
       <c r="F358" s="8"/>
     </row>
     <row r="359" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A359" s="6" t="str">
+      <c r="A359" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A359,Concepts!A359:A500,1), "")</f>
         <v/>
       </c>
@@ -18840,7 +18824,7 @@
       <c r="F359" s="8"/>
     </row>
     <row r="360" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A360" s="6" t="str">
+      <c r="A360" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A360,Concepts!A360:A500,1), "")</f>
         <v/>
       </c>
@@ -18851,7 +18835,7 @@
       <c r="F360" s="8"/>
     </row>
     <row r="361" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A361" s="6" t="str">
+      <c r="A361" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A361,Concepts!A361:A500,1), "")</f>
         <v/>
       </c>
@@ -18862,7 +18846,7 @@
       <c r="F361" s="8"/>
     </row>
     <row r="362" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="6" t="str">
+      <c r="A362" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A362,Concepts!A362:A500,1), "")</f>
         <v/>
       </c>
@@ -18873,7 +18857,7 @@
       <c r="F362" s="8"/>
     </row>
     <row r="363" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="6" t="str">
+      <c r="A363" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A363,Concepts!A363:A500,1), "")</f>
         <v/>
       </c>
@@ -18884,7 +18868,7 @@
       <c r="F363" s="8"/>
     </row>
     <row r="364" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="6" t="str">
+      <c r="A364" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A364,Concepts!A364:A500,1), "")</f>
         <v/>
       </c>
@@ -18895,7 +18879,7 @@
       <c r="F364" s="8"/>
     </row>
     <row r="365" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="6" t="str">
+      <c r="A365" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A365,Concepts!A365:A500,1), "")</f>
         <v/>
       </c>
@@ -18906,7 +18890,7 @@
       <c r="F365" s="8"/>
     </row>
     <row r="366" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="6" t="str">
+      <c r="A366" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A366,Concepts!A366:A500,1), "")</f>
         <v/>
       </c>
@@ -18917,7 +18901,7 @@
       <c r="F366" s="8"/>
     </row>
     <row r="367" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="6" t="str">
+      <c r="A367" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A367,Concepts!A367:A500,1), "")</f>
         <v/>
       </c>
@@ -18928,7 +18912,7 @@
       <c r="F367" s="8"/>
     </row>
     <row r="368" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="6" t="str">
+      <c r="A368" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A368,Concepts!A368:A500,1), "")</f>
         <v/>
       </c>
@@ -18939,7 +18923,7 @@
       <c r="F368" s="8"/>
     </row>
     <row r="369" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="6" t="str">
+      <c r="A369" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A369,Concepts!A369:A500,1), "")</f>
         <v/>
       </c>
@@ -18950,7 +18934,7 @@
       <c r="F369" s="8"/>
     </row>
     <row r="370" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="6" t="str">
+      <c r="A370" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A370,Concepts!A370:A500,1), "")</f>
         <v/>
       </c>
@@ -18961,7 +18945,7 @@
       <c r="F370" s="8"/>
     </row>
     <row r="371" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="6" t="str">
+      <c r="A371" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A371,Concepts!A371:A500,1), "")</f>
         <v/>
       </c>
@@ -18972,7 +18956,7 @@
       <c r="F371" s="8"/>
     </row>
     <row r="372" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="6" t="str">
+      <c r="A372" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A372,Concepts!A372:A500,1), "")</f>
         <v/>
       </c>
@@ -18983,7 +18967,7 @@
       <c r="F372" s="8"/>
     </row>
     <row r="373" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="6" t="str">
+      <c r="A373" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A373,Concepts!A373:A500,1), "")</f>
         <v/>
       </c>
@@ -18994,7 +18978,7 @@
       <c r="F373" s="8"/>
     </row>
     <row r="374" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="6" t="str">
+      <c r="A374" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A374,Concepts!A374:A500,1), "")</f>
         <v/>
       </c>
@@ -19005,7 +18989,7 @@
       <c r="F374" s="8"/>
     </row>
     <row r="375" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="6" t="str">
+      <c r="A375" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A375,Concepts!A375:A500,1), "")</f>
         <v/>
       </c>
@@ -19016,7 +19000,7 @@
       <c r="F375" s="8"/>
     </row>
     <row r="376" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="6" t="str">
+      <c r="A376" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A376,Concepts!A376:A500,1), "")</f>
         <v/>
       </c>
@@ -19027,7 +19011,7 @@
       <c r="F376" s="8"/>
     </row>
     <row r="377" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="6" t="str">
+      <c r="A377" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A377,Concepts!A377:A500,1), "")</f>
         <v/>
       </c>
@@ -19038,7 +19022,7 @@
       <c r="F377" s="8"/>
     </row>
     <row r="378" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="6" t="str">
+      <c r="A378" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A378,Concepts!A378:A500,1), "")</f>
         <v/>
       </c>
@@ -19049,7 +19033,7 @@
       <c r="F378" s="8"/>
     </row>
     <row r="379" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="6" t="str">
+      <c r="A379" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A379,Concepts!A379:A500,1), "")</f>
         <v/>
       </c>
@@ -19060,7 +19044,7 @@
       <c r="F379" s="8"/>
     </row>
     <row r="380" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="6" t="str">
+      <c r="A380" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A380,Concepts!A380:A500,1), "")</f>
         <v/>
       </c>
@@ -19071,7 +19055,7 @@
       <c r="F380" s="8"/>
     </row>
     <row r="381" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="6" t="str">
+      <c r="A381" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A381,Concepts!A381:A500,1), "")</f>
         <v/>
       </c>
@@ -19082,7 +19066,7 @@
       <c r="F381" s="8"/>
     </row>
     <row r="382" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A382" s="6" t="str">
+      <c r="A382" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A382,Concepts!A382:A500,1), "")</f>
         <v/>
       </c>
@@ -19093,7 +19077,7 @@
       <c r="F382" s="8"/>
     </row>
     <row r="383" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A383" s="6" t="str">
+      <c r="A383" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A383,Concepts!A383:A500,1), "")</f>
         <v/>
       </c>
@@ -19104,7 +19088,7 @@
       <c r="F383" s="8"/>
     </row>
     <row r="384" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A384" s="6" t="str">
+      <c r="A384" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A384,Concepts!A384:A500,1), "")</f>
         <v/>
       </c>
@@ -19115,7 +19099,7 @@
       <c r="F384" s="8"/>
     </row>
     <row r="385" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="6" t="str">
+      <c r="A385" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A385,Concepts!A385:A500,1), "")</f>
         <v/>
       </c>
@@ -19126,7 +19110,7 @@
       <c r="F385" s="8"/>
     </row>
     <row r="386" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="6" t="str">
+      <c r="A386" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A386,Concepts!A386:A500,1), "")</f>
         <v/>
       </c>
@@ -19137,7 +19121,7 @@
       <c r="F386" s="8"/>
     </row>
     <row r="387" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="6" t="str">
+      <c r="A387" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A387,Concepts!A387:A500,1), "")</f>
         <v/>
       </c>
@@ -19148,7 +19132,7 @@
       <c r="F387" s="8"/>
     </row>
     <row r="388" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="6" t="str">
+      <c r="A388" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A388,Concepts!A388:A500,1), "")</f>
         <v/>
       </c>
@@ -19159,7 +19143,7 @@
       <c r="F388" s="8"/>
     </row>
     <row r="389" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="6" t="str">
+      <c r="A389" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A389,Concepts!A389:A500,1), "")</f>
         <v/>
       </c>
@@ -19170,7 +19154,7 @@
       <c r="F389" s="8"/>
     </row>
     <row r="390" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A390" s="6" t="str">
+      <c r="A390" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A390,Concepts!A390:A500,1), "")</f>
         <v/>
       </c>
@@ -19181,7 +19165,7 @@
       <c r="F390" s="8"/>
     </row>
     <row r="391" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="6" t="str">
+      <c r="A391" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A391,Concepts!A391:A500,1), "")</f>
         <v/>
       </c>
@@ -19192,7 +19176,7 @@
       <c r="F391" s="8"/>
     </row>
     <row r="392" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="6" t="str">
+      <c r="A392" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A392,Concepts!A392:A500,1), "")</f>
         <v/>
       </c>
@@ -19203,7 +19187,7 @@
       <c r="F392" s="8"/>
     </row>
     <row r="393" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="6" t="str">
+      <c r="A393" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A393,Concepts!A393:A500,1), "")</f>
         <v/>
       </c>
@@ -19214,7 +19198,7 @@
       <c r="F393" s="8"/>
     </row>
     <row r="394" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="6" t="str">
+      <c r="A394" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A394,Concepts!A394:A500,1), "")</f>
         <v/>
       </c>
@@ -19225,7 +19209,7 @@
       <c r="F394" s="8"/>
     </row>
     <row r="395" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="6" t="str">
+      <c r="A395" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A395,Concepts!A395:A500,1), "")</f>
         <v/>
       </c>
@@ -19236,7 +19220,7 @@
       <c r="F395" s="8"/>
     </row>
     <row r="396" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="6" t="str">
+      <c r="A396" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A396,Concepts!A396:A500,1), "")</f>
         <v/>
       </c>
@@ -19247,7 +19231,7 @@
       <c r="F396" s="8"/>
     </row>
     <row r="397" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="6" t="str">
+      <c r="A397" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A397,Concepts!A397:A500,1), "")</f>
         <v/>
       </c>
@@ -19258,7 +19242,7 @@
       <c r="F397" s="8"/>
     </row>
     <row r="398" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="6" t="str">
+      <c r="A398" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A398,Concepts!A398:A500,1), "")</f>
         <v/>
       </c>
@@ -19269,7 +19253,7 @@
       <c r="F398" s="8"/>
     </row>
     <row r="399" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="6" t="str">
+      <c r="A399" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A399,Concepts!A399:A500,1), "")</f>
         <v/>
       </c>
@@ -19280,7 +19264,7 @@
       <c r="F399" s="8"/>
     </row>
     <row r="400" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="6" t="str">
+      <c r="A400" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A400,Concepts!A400:A500,1), "")</f>
         <v/>
       </c>
@@ -19291,7 +19275,7 @@
       <c r="F400" s="8"/>
     </row>
     <row r="401" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="6" t="str">
+      <c r="A401" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A401,Concepts!A401:A500,1), "")</f>
         <v/>
       </c>
@@ -19302,7 +19286,7 @@
       <c r="F401" s="8"/>
     </row>
     <row r="402" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="6" t="str">
+      <c r="A402" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A402,Concepts!A402:A500,1), "")</f>
         <v/>
       </c>
@@ -19313,7 +19297,7 @@
       <c r="F402" s="8"/>
     </row>
     <row r="403" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A403" s="6" t="str">
+      <c r="A403" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A403,Concepts!A403:A500,1), "")</f>
         <v/>
       </c>
@@ -19324,7 +19308,7 @@
       <c r="F403" s="8"/>
     </row>
     <row r="404" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A404" s="6" t="str">
+      <c r="A404" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A404,Concepts!A404:A500,1), "")</f>
         <v/>
       </c>
@@ -19335,7 +19319,7 @@
       <c r="F404" s="8"/>
     </row>
     <row r="405" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="6" t="str">
+      <c r="A405" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A405,Concepts!A405:A500,1), "")</f>
         <v/>
       </c>
@@ -19346,7 +19330,7 @@
       <c r="F405" s="8"/>
     </row>
     <row r="406" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="6" t="str">
+      <c r="A406" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A406,Concepts!A406:A500,1), "")</f>
         <v/>
       </c>
@@ -19357,7 +19341,7 @@
       <c r="F406" s="8"/>
     </row>
     <row r="407" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="6" t="str">
+      <c r="A407" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A407,Concepts!A407:A500,1), "")</f>
         <v/>
       </c>
@@ -19368,7 +19352,7 @@
       <c r="F407" s="8"/>
     </row>
     <row r="408" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="6" t="str">
+      <c r="A408" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A408,Concepts!A408:A500,1), "")</f>
         <v/>
       </c>
@@ -19379,7 +19363,7 @@
       <c r="F408" s="8"/>
     </row>
     <row r="409" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="6" t="str">
+      <c r="A409" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A409,Concepts!A409:A500,1), "")</f>
         <v/>
       </c>
@@ -19390,7 +19374,7 @@
       <c r="F409" s="8"/>
     </row>
     <row r="410" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="6" t="str">
+      <c r="A410" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A410,Concepts!A410:A500,1), "")</f>
         <v/>
       </c>
@@ -19401,7 +19385,7 @@
       <c r="F410" s="8"/>
     </row>
     <row r="411" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="6" t="str">
+      <c r="A411" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A411,Concepts!A411:A500,1), "")</f>
         <v/>
       </c>
@@ -19412,7 +19396,7 @@
       <c r="F411" s="8"/>
     </row>
     <row r="412" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="6" t="str">
+      <c r="A412" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A412,Concepts!A412:A500,1), "")</f>
         <v/>
       </c>
@@ -19423,7 +19407,7 @@
       <c r="F412" s="8"/>
     </row>
     <row r="413" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="6" t="str">
+      <c r="A413" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A413,Concepts!A413:A500,1), "")</f>
         <v/>
       </c>
@@ -19434,7 +19418,7 @@
       <c r="F413" s="8"/>
     </row>
     <row r="414" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="6" t="str">
+      <c r="A414" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A414,Concepts!A414:A500,1), "")</f>
         <v/>
       </c>
@@ -19445,7 +19429,7 @@
       <c r="F414" s="8"/>
     </row>
     <row r="415" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="6" t="str">
+      <c r="A415" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A415,Concepts!A415:A500,1), "")</f>
         <v/>
       </c>
@@ -19456,7 +19440,7 @@
       <c r="F415" s="8"/>
     </row>
     <row r="416" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="6" t="str">
+      <c r="A416" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A416,Concepts!A416:A500,1), "")</f>
         <v/>
       </c>
@@ -19467,7 +19451,7 @@
       <c r="F416" s="8"/>
     </row>
     <row r="417" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="6" t="str">
+      <c r="A417" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A417,Concepts!A417:A500,1), "")</f>
         <v/>
       </c>
@@ -19478,7 +19462,7 @@
       <c r="F417" s="8"/>
     </row>
     <row r="418" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="6" t="str">
+      <c r="A418" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A418,Concepts!A418:A500,1), "")</f>
         <v/>
       </c>
@@ -19489,7 +19473,7 @@
       <c r="F418" s="8"/>
     </row>
     <row r="419" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A419" s="6" t="str">
+      <c r="A419" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A419,Concepts!A419:A500,1), "")</f>
         <v/>
       </c>
@@ -19500,7 +19484,7 @@
       <c r="F419" s="8"/>
     </row>
     <row r="420" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A420" s="6" t="str">
+      <c r="A420" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A420,Concepts!A420:A500,1), "")</f>
         <v/>
       </c>
@@ -19511,7 +19495,7 @@
       <c r="F420" s="8"/>
     </row>
     <row r="421" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="6" t="str">
+      <c r="A421" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A421,Concepts!A421:A500,1), "")</f>
         <v/>
       </c>
@@ -19522,7 +19506,7 @@
       <c r="F421" s="8"/>
     </row>
     <row r="422" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="6" t="str">
+      <c r="A422" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A422,Concepts!A422:A500,1), "")</f>
         <v/>
       </c>
@@ -19533,7 +19517,7 @@
       <c r="F422" s="8"/>
     </row>
     <row r="423" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="6" t="str">
+      <c r="A423" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A423,Concepts!A423:A500,1), "")</f>
         <v/>
       </c>
@@ -19544,7 +19528,7 @@
       <c r="F423" s="8"/>
     </row>
     <row r="424" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="6" t="str">
+      <c r="A424" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A424,Concepts!A424:A500,1), "")</f>
         <v/>
       </c>
@@ -19555,7 +19539,7 @@
       <c r="F424" s="8"/>
     </row>
     <row r="425" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="6" t="str">
+      <c r="A425" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A425,Concepts!A425:A500,1), "")</f>
         <v/>
       </c>
@@ -19566,7 +19550,7 @@
       <c r="F425" s="8"/>
     </row>
     <row r="426" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="6" t="str">
+      <c r="A426" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A426,Concepts!A426:A500,1), "")</f>
         <v/>
       </c>
@@ -19577,7 +19561,7 @@
       <c r="F426" s="8"/>
     </row>
     <row r="427" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="6" t="str">
+      <c r="A427" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A427,Concepts!A427:A500,1), "")</f>
         <v/>
       </c>
@@ -19588,7 +19572,7 @@
       <c r="F427" s="8"/>
     </row>
     <row r="428" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="6" t="str">
+      <c r="A428" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A428,Concepts!A428:A500,1), "")</f>
         <v/>
       </c>
@@ -19599,7 +19583,7 @@
       <c r="F428" s="8"/>
     </row>
     <row r="429" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="6" t="str">
+      <c r="A429" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A429,Concepts!A429:A500,1), "")</f>
         <v/>
       </c>
@@ -19610,7 +19594,7 @@
       <c r="F429" s="8"/>
     </row>
     <row r="430" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="6" t="str">
+      <c r="A430" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A430,Concepts!A430:A500,1), "")</f>
         <v/>
       </c>
@@ -19621,7 +19605,7 @@
       <c r="F430" s="8"/>
     </row>
     <row r="431" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="6" t="str">
+      <c r="A431" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A431,Concepts!A431:A500,1), "")</f>
         <v/>
       </c>
@@ -19632,7 +19616,7 @@
       <c r="F431" s="8"/>
     </row>
     <row r="432" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="6" t="str">
+      <c r="A432" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A432,Concepts!A432:A500,1), "")</f>
         <v/>
       </c>
@@ -19643,7 +19627,7 @@
       <c r="F432" s="8"/>
     </row>
     <row r="433" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="6" t="str">
+      <c r="A433" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A433,Concepts!A433:A500,1), "")</f>
         <v/>
       </c>
@@ -19654,7 +19638,7 @@
       <c r="F433" s="8"/>
     </row>
     <row r="434" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="6" t="str">
+      <c r="A434" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A434,Concepts!A434:A500,1), "")</f>
         <v/>
       </c>
@@ -19665,7 +19649,7 @@
       <c r="F434" s="8"/>
     </row>
     <row r="435" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="6" t="str">
+      <c r="A435" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A435,Concepts!A435:A500,1), "")</f>
         <v/>
       </c>
@@ -19676,7 +19660,7 @@
       <c r="F435" s="8"/>
     </row>
     <row r="436" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="6" t="str">
+      <c r="A436" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A436,Concepts!A436:A500,1), "")</f>
         <v/>
       </c>
@@ -19687,7 +19671,7 @@
       <c r="F436" s="8"/>
     </row>
     <row r="437" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="6" t="str">
+      <c r="A437" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A437,Concepts!A437:A500,1), "")</f>
         <v/>
       </c>
@@ -19698,7 +19682,7 @@
       <c r="F437" s="8"/>
     </row>
     <row r="438" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="6" t="str">
+      <c r="A438" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A438,Concepts!A438:A500,1), "")</f>
         <v/>
       </c>
@@ -19709,7 +19693,7 @@
       <c r="F438" s="8"/>
     </row>
     <row r="439" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="6" t="str">
+      <c r="A439" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A439,Concepts!A439:A500,1), "")</f>
         <v/>
       </c>
@@ -19720,7 +19704,7 @@
       <c r="F439" s="8"/>
     </row>
     <row r="440" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="6" t="str">
+      <c r="A440" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A440,Concepts!A440:A500,1), "")</f>
         <v/>
       </c>
@@ -19731,7 +19715,7 @@
       <c r="F440" s="8"/>
     </row>
     <row r="441" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A441" s="6" t="str">
+      <c r="A441" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A441,Concepts!A441:A500,1), "")</f>
         <v/>
       </c>
@@ -19742,7 +19726,7 @@
       <c r="F441" s="8"/>
     </row>
     <row r="442" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A442" s="6" t="str">
+      <c r="A442" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A442,Concepts!A442:A500,1), "")</f>
         <v/>
       </c>
@@ -19753,7 +19737,7 @@
       <c r="F442" s="8"/>
     </row>
     <row r="443" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A443" s="6" t="str">
+      <c r="A443" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A443,Concepts!A443:A500,1), "")</f>
         <v/>
       </c>
@@ -19764,7 +19748,7 @@
       <c r="F443" s="8"/>
     </row>
     <row r="444" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A444" s="6" t="str">
+      <c r="A444" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A444,Concepts!A444:A500,1), "")</f>
         <v/>
       </c>
@@ -19775,7 +19759,7 @@
       <c r="F444" s="8"/>
     </row>
     <row r="445" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A445" s="6" t="str">
+      <c r="A445" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A445,Concepts!A445:A500,1), "")</f>
         <v/>
       </c>
@@ -19786,7 +19770,7 @@
       <c r="F445" s="8"/>
     </row>
     <row r="446" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A446" s="6" t="str">
+      <c r="A446" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A446,Concepts!A446:A500,1), "")</f>
         <v/>
       </c>
@@ -19797,7 +19781,7 @@
       <c r="F446" s="8"/>
     </row>
     <row r="447" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A447" s="6" t="str">
+      <c r="A447" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A447,Concepts!A447:A500,1), "")</f>
         <v/>
       </c>
@@ -19808,7 +19792,7 @@
       <c r="F447" s="8"/>
     </row>
     <row r="448" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A448" s="6" t="str">
+      <c r="A448" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A448,Concepts!A448:A500,1), "")</f>
         <v/>
       </c>
@@ -19819,7 +19803,7 @@
       <c r="F448" s="8"/>
     </row>
     <row r="449" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A449" s="6" t="str">
+      <c r="A449" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A449,Concepts!A449:A500,1), "")</f>
         <v/>
       </c>
@@ -19830,7 +19814,7 @@
       <c r="F449" s="8"/>
     </row>
     <row r="450" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="6" t="str">
+      <c r="A450" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A450,Concepts!A450:A500,1), "")</f>
         <v/>
       </c>
@@ -19841,7 +19825,7 @@
       <c r="F450" s="8"/>
     </row>
     <row r="451" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="6" t="str">
+      <c r="A451" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A451,Concepts!A451:A500,1), "")</f>
         <v/>
       </c>
@@ -19852,7 +19836,7 @@
       <c r="F451" s="8"/>
     </row>
     <row r="452" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="6" t="str">
+      <c r="A452" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A452,Concepts!A452:A500,1), "")</f>
         <v/>
       </c>
@@ -19863,7 +19847,7 @@
       <c r="F452" s="8"/>
     </row>
     <row r="453" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="6" t="str">
+      <c r="A453" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A453,Concepts!A453:A500,1), "")</f>
         <v/>
       </c>
@@ -19874,7 +19858,7 @@
       <c r="F453" s="8"/>
     </row>
     <row r="454" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="6" t="str">
+      <c r="A454" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A454,Concepts!A454:A500,1), "")</f>
         <v/>
       </c>
@@ -19885,7 +19869,7 @@
       <c r="F454" s="8"/>
     </row>
     <row r="455" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="6" t="str">
+      <c r="A455" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A455,Concepts!A455:A500,1), "")</f>
         <v/>
       </c>
@@ -19896,7 +19880,7 @@
       <c r="F455" s="8"/>
     </row>
     <row r="456" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="6" t="str">
+      <c r="A456" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A456,Concepts!A456:A500,1), "")</f>
         <v/>
       </c>
@@ -19907,7 +19891,7 @@
       <c r="F456" s="8"/>
     </row>
     <row r="457" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="6" t="str">
+      <c r="A457" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A457,Concepts!A457:A500,1), "")</f>
         <v/>
       </c>
@@ -19918,7 +19902,7 @@
       <c r="F457" s="8"/>
     </row>
     <row r="458" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="6" t="str">
+      <c r="A458" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A458,Concepts!A458:A500,1), "")</f>
         <v/>
       </c>
@@ -19929,7 +19913,7 @@
       <c r="F458" s="8"/>
     </row>
     <row r="459" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="6" t="str">
+      <c r="A459" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A459,Concepts!A459:A500,1), "")</f>
         <v/>
       </c>
@@ -19940,7 +19924,7 @@
       <c r="F459" s="8"/>
     </row>
     <row r="460" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="6" t="str">
+      <c r="A460" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A460,Concepts!A460:A500,1), "")</f>
         <v/>
       </c>
@@ -19951,7 +19935,7 @@
       <c r="F460" s="8"/>
     </row>
     <row r="461" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="6" t="str">
+      <c r="A461" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A461,Concepts!A461:A500,1), "")</f>
         <v/>
       </c>
@@ -19962,7 +19946,7 @@
       <c r="F461" s="8"/>
     </row>
     <row r="462" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="6" t="str">
+      <c r="A462" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A462,Concepts!A462:A500,1), "")</f>
         <v/>
       </c>
@@ -19973,7 +19957,7 @@
       <c r="F462" s="8"/>
     </row>
     <row r="463" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="6" t="str">
+      <c r="A463" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A463,Concepts!A463:A500,1), "")</f>
         <v/>
       </c>
@@ -19984,7 +19968,7 @@
       <c r="F463" s="8"/>
     </row>
     <row r="464" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="6" t="str">
+      <c r="A464" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A464,Concepts!A464:A500,1), "")</f>
         <v/>
       </c>
@@ -19995,7 +19979,7 @@
       <c r="F464" s="8"/>
     </row>
     <row r="465" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="6" t="str">
+      <c r="A465" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A465,Concepts!A465:A500,1), "")</f>
         <v/>
       </c>
@@ -20006,7 +19990,7 @@
       <c r="F465" s="8"/>
     </row>
     <row r="466" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="6" t="str">
+      <c r="A466" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A466,Concepts!A466:A500,1), "")</f>
         <v/>
       </c>
@@ -20017,7 +20001,7 @@
       <c r="F466" s="8"/>
     </row>
     <row r="467" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="6" t="str">
+      <c r="A467" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A467,Concepts!A467:A500,1), "")</f>
         <v/>
       </c>
@@ -20028,7 +20012,7 @@
       <c r="F467" s="8"/>
     </row>
     <row r="468" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="6" t="str">
+      <c r="A468" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A468,Concepts!A468:A500,1), "")</f>
         <v/>
       </c>
@@ -20039,7 +20023,7 @@
       <c r="F468" s="8"/>
     </row>
     <row r="469" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="6" t="str">
+      <c r="A469" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A469,Concepts!A469:A500,1), "")</f>
         <v/>
       </c>
@@ -20050,7 +20034,7 @@
       <c r="F469" s="8"/>
     </row>
     <row r="470" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="6" t="str">
+      <c r="A470" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A470,Concepts!A470:A500,1), "")</f>
         <v/>
       </c>
@@ -20061,7 +20045,7 @@
       <c r="F470" s="8"/>
     </row>
     <row r="471" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="6" t="str">
+      <c r="A471" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A471,Concepts!A471:A500,1), "")</f>
         <v/>
       </c>
@@ -20072,7 +20056,7 @@
       <c r="F471" s="8"/>
     </row>
     <row r="472" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="6" t="str">
+      <c r="A472" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A472,Concepts!A472:A500,1), "")</f>
         <v/>
       </c>
@@ -20083,7 +20067,7 @@
       <c r="F472" s="8"/>
     </row>
     <row r="473" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="6" t="str">
+      <c r="A473" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A473,Concepts!A473:A500,1), "")</f>
         <v/>
       </c>
@@ -20094,7 +20078,7 @@
       <c r="F473" s="8"/>
     </row>
     <row r="474" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="6" t="str">
+      <c r="A474" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A474,Concepts!A474:A500,1), "")</f>
         <v/>
       </c>
@@ -20105,7 +20089,7 @@
       <c r="F474" s="8"/>
     </row>
     <row r="475" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A475" s="6" t="str">
+      <c r="A475" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A475,Concepts!A475:A500,1), "")</f>
         <v/>
       </c>
@@ -20116,7 +20100,7 @@
       <c r="F475" s="8"/>
     </row>
     <row r="476" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A476" s="6" t="str">
+      <c r="A476" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A476,Concepts!A476:A500,1), "")</f>
         <v/>
       </c>
@@ -20127,7 +20111,7 @@
       <c r="F476" s="8"/>
     </row>
     <row r="477" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A477" s="6" t="str">
+      <c r="A477" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A477,Concepts!A477:A500,1), "")</f>
         <v/>
       </c>
@@ -20138,7 +20122,7 @@
       <c r="F477" s="8"/>
     </row>
     <row r="478" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A478" s="6" t="str">
+      <c r="A478" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A478,Concepts!A478:A500,1), "")</f>
         <v/>
       </c>
@@ -20149,7 +20133,7 @@
       <c r="F478" s="8"/>
     </row>
     <row r="479" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A479" s="6" t="str">
+      <c r="A479" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A479,Concepts!A479:A500,1), "")</f>
         <v/>
       </c>
@@ -20160,7 +20144,7 @@
       <c r="F479" s="8"/>
     </row>
     <row r="480" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A480" s="6" t="str">
+      <c r="A480" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A480,Concepts!A480:A500,1), "")</f>
         <v/>
       </c>
@@ -20171,7 +20155,7 @@
       <c r="F480" s="8"/>
     </row>
     <row r="481" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A481" s="6" t="str">
+      <c r="A481" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A481,Concepts!A481:A500,1), "")</f>
         <v/>
       </c>
@@ -20182,7 +20166,7 @@
       <c r="F481" s="8"/>
     </row>
     <row r="482" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A482" s="6" t="str">
+      <c r="A482" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A482,Concepts!A482:A500,1), "")</f>
         <v/>
       </c>
@@ -20193,7 +20177,7 @@
       <c r="F482" s="8"/>
     </row>
     <row r="483" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A483" s="6" t="str">
+      <c r="A483" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A483,Concepts!A483:A500,1), "")</f>
         <v/>
       </c>
@@ -20204,7 +20188,7 @@
       <c r="F483" s="8"/>
     </row>
     <row r="484" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A484" s="6" t="str">
+      <c r="A484" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A484,Concepts!A484:A500,1), "")</f>
         <v/>
       </c>
@@ -20215,7 +20199,7 @@
       <c r="F484" s="8"/>
     </row>
     <row r="485" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A485" s="6" t="str">
+      <c r="A485" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A485,Concepts!A485:A500,1), "")</f>
         <v/>
       </c>
@@ -20226,7 +20210,7 @@
       <c r="F485" s="8"/>
     </row>
     <row r="486" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A486" s="6" t="str">
+      <c r="A486" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A486,Concepts!A486:A500,1), "")</f>
         <v/>
       </c>
@@ -20237,7 +20221,7 @@
       <c r="F486" s="8"/>
     </row>
     <row r="487" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A487" s="6" t="str">
+      <c r="A487" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A487,Concepts!A487:A500,1), "")</f>
         <v/>
       </c>
@@ -20248,7 +20232,7 @@
       <c r="F487" s="8"/>
     </row>
     <row r="488" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A488" s="6" t="str">
+      <c r="A488" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A488,Concepts!A488:A500,1), "")</f>
         <v/>
       </c>
@@ -20259,7 +20243,7 @@
       <c r="F488" s="8"/>
     </row>
     <row r="489" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A489" s="6" t="str">
+      <c r="A489" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A489,Concepts!A489:A500,1), "")</f>
         <v/>
       </c>
@@ -20270,7 +20254,7 @@
       <c r="F489" s="8"/>
     </row>
     <row r="490" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A490" s="6" t="str">
+      <c r="A490" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A490,Concepts!A490:A500,1), "")</f>
         <v/>
       </c>
@@ -20281,7 +20265,7 @@
       <c r="F490" s="8"/>
     </row>
     <row r="491" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A491" s="6" t="str">
+      <c r="A491" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A491,Concepts!A491:A500,1), "")</f>
         <v/>
       </c>
@@ -20292,7 +20276,7 @@
       <c r="F491" s="8"/>
     </row>
     <row r="492" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A492" s="6" t="str">
+      <c r="A492" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A492,Concepts!A492:A500,1), "")</f>
         <v/>
       </c>
@@ -20303,7 +20287,7 @@
       <c r="F492" s="8"/>
     </row>
     <row r="493" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A493" s="6" t="str">
+      <c r="A493" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A493,Concepts!A493:A500,1), "")</f>
         <v/>
       </c>
@@ -20314,7 +20298,7 @@
       <c r="F493" s="8"/>
     </row>
     <row r="494" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A494" s="6" t="str">
+      <c r="A494" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A494,Concepts!A494:A500,1), "")</f>
         <v/>
       </c>
@@ -20325,7 +20309,7 @@
       <c r="F494" s="8"/>
     </row>
     <row r="495" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A495" s="6" t="str">
+      <c r="A495" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A495,Concepts!A495:A500,1), "")</f>
         <v/>
       </c>
@@ -20336,7 +20320,7 @@
       <c r="F495" s="8"/>
     </row>
     <row r="496" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A496" s="6" t="str">
+      <c r="A496" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A496,Concepts!A496:A500,1), "")</f>
         <v/>
       </c>
@@ -20347,7 +20331,7 @@
       <c r="F496" s="8"/>
     </row>
     <row r="497" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A497" s="6" t="str">
+      <c r="A497" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A497,Concepts!A497:A500,1), "")</f>
         <v/>
       </c>
@@ -20358,7 +20342,7 @@
       <c r="F497" s="8"/>
     </row>
     <row r="498" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A498" s="6" t="str">
+      <c r="A498" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A498,Concepts!A498:A500,1), "")</f>
         <v/>
       </c>
@@ -20369,7 +20353,7 @@
       <c r="F498" s="8"/>
     </row>
     <row r="499" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A499" s="6" t="str">
+      <c r="A499" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A499,Concepts!A499:A500,1), "")</f>
         <v/>
       </c>
@@ -20380,7 +20364,7 @@
       <c r="F499" s="8"/>
     </row>
     <row r="500" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A500" s="6" t="str">
+      <c r="A500" s="38" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A500,Concepts!A500,1), "")</f>
         <v/>
       </c>
@@ -20424,13 +20408,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -21891,23 +21875,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="37"/>
-    <col min="2" max="2" width="43.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="23"/>
+    <col min="2" max="2" width="43.7109375" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="22" t="s">
         <v>69</v>
       </c>
     </row>
